--- a/02画面遷移図_絶対に法を犯さないマズロー.xlsx
+++ b/02画面遷移図_絶対に法を犯さないマズロー.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27624"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27628"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://asojukustudent.sharepoint.com/sites/msteams_acd48d/Shared Documents/General/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://asojukustudent.sharepoint.com/sites/a_SD3C_abcc24/Shared Documents/03_提出用/02_設計書/絶対に法を犯さないマズロー/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="152" documentId="13_ncr:1_{655E2B27-4A17-4A61-B5D5-8A331D6432ED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{483B0A4C-656E-4217-A1AA-9DF93DA56E12}"/>
+  <xr:revisionPtr revIDLastSave="354" documentId="13_ncr:1_{655E2B27-4A17-4A61-B5D5-8A331D6432ED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{FFA21026-E4B6-4702-A6D9-C2DC04D932D7}"/>
   <bookViews>
-    <workbookView xWindow="7428" yWindow="0" windowWidth="15708" windowHeight="12336" firstSheet="2" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="記述様式" sheetId="9" r:id="rId1"/>
@@ -46,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="38">
   <si>
     <t>記述様式（記号説明）</t>
     <rPh sb="0" eb="2">
@@ -435,31 +435,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>登録画面、ログイン、ログアウト、ホーム画面、投稿画面、コメント画面、削除確認(完了)画面</t>
-    <rPh sb="0" eb="4">
-      <t>トウロクガメン</t>
-    </rPh>
-    <rPh sb="19" eb="21">
-      <t>ガメン</t>
-    </rPh>
-    <rPh sb="22" eb="26">
-      <t>トウコウガメン</t>
-    </rPh>
-    <rPh sb="31" eb="33">
-      <t>ガメン</t>
-    </rPh>
-    <rPh sb="34" eb="38">
-      <t>サクジョカクニン</t>
-    </rPh>
-    <rPh sb="39" eb="41">
-      <t>カンリョウ</t>
-    </rPh>
-    <rPh sb="42" eb="44">
-      <t>ガメン</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>絶対に法を犯さないマズロー</t>
     <phoneticPr fontId="2"/>
   </si>
@@ -474,32 +449,26 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>ホーム画面のハンバーガーメニュー</t>
-    <rPh sb="3" eb="5">
-      <t>ガメン</t>
-    </rPh>
+    <t xml:space="preserve"> </t>
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>ログアうと</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>アカウント画面</t>
+    <t>アカウント登録、ログイン、ログアウト、ホーム、投稿、マイページ編集、コメント、投稿削除、DM</t>
     <rPh sb="5" eb="7">
-      <t>ガメン</t>
+      <t>トウロク</t>
     </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>削除</t>
-    <rPh sb="0" eb="2">
+    <rPh sb="23" eb="25">
+      <t>トウコウ</t>
+    </rPh>
+    <rPh sb="31" eb="33">
+      <t>ヘンシュウ</t>
+    </rPh>
+    <rPh sb="39" eb="41">
+      <t>トウコウ</t>
+    </rPh>
+    <rPh sb="41" eb="43">
       <t>サクジョ</t>
     </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t xml:space="preserve"> </t>
     <phoneticPr fontId="2"/>
   </si>
 </sst>
@@ -760,7 +729,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="66">
+  <cellXfs count="70">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="2" applyFont="1" applyBorder="1"/>
@@ -822,6 +791,10 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="176" fontId="3" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
@@ -7066,8 +7039,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="2207815" y="2295281"/>
-          <a:ext cx="6115570" cy="3461483"/>
+          <a:off x="2328465" y="2333381"/>
+          <a:ext cx="6471170" cy="3528158"/>
           <a:chOff x="2531665" y="2112596"/>
           <a:chExt cx="7029970" cy="3394808"/>
         </a:xfrm>
@@ -7762,65 +7735,6 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>107752</xdr:colOff>
-      <xdr:row>13</xdr:row>
-      <xdr:rowOff>56029</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>246533</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>79244</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="2" name="カギ線コネクタ 54">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{01AE92D8-2813-45EE-B3F8-7D2BE0B9BA2B}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvCxnSpPr/>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm flipV="1">
-          <a:off x="2645212" y="2242969"/>
-          <a:ext cx="984601" cy="663295"/>
-        </a:xfrm>
-        <a:prstGeom prst="bentConnector3">
-          <a:avLst>
-            <a:gd name="adj1" fmla="val -15364"/>
-          </a:avLst>
-        </a:prstGeom>
-        <a:ln w="12700">
-          <a:solidFill>
-            <a:schemeClr val="tx1"/>
-          </a:solidFill>
-          <a:headEnd type="none" w="med" len="med"/>
-          <a:tailEnd type="arrow" w="med" len="med"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>145492</xdr:colOff>
       <xdr:row>13</xdr:row>
@@ -7989,7 +7903,7 @@
               <a:ea typeface="Meiryo UI" pitchFamily="50" charset="-128"/>
               <a:cs typeface="Meiryo UI" pitchFamily="50" charset="-128"/>
             </a:rPr>
-            <a:t>G1-3</a:t>
+            <a:t>G1-1</a:t>
           </a:r>
         </a:p>
         <a:p>
@@ -8035,7 +7949,7 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>316452</xdr:colOff>
+      <xdr:colOff>291052</xdr:colOff>
       <xdr:row>17</xdr:row>
       <xdr:rowOff>68037</xdr:rowOff>
     </xdr:from>
@@ -8061,8 +7975,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1688052" y="2895057"/>
-          <a:ext cx="1118062" cy="946511"/>
+          <a:off x="1758608" y="2895904"/>
+          <a:ext cx="1151646" cy="934657"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
           <a:avLst>
@@ -8206,7 +8120,7 @@
               <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="34" charset="-128"/>
               <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="34" charset="-128"/>
             </a:rPr>
-            <a:t>G2-1</a:t>
+            <a:t>G1-3</a:t>
           </a:r>
         </a:p>
         <a:p>
@@ -8405,127 +8319,6 @@
         </a:p>
       </xdr:txBody>
     </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>153342</xdr:colOff>
-      <xdr:row>18</xdr:row>
-      <xdr:rowOff>61679</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>30941</xdr:colOff>
-      <xdr:row>29</xdr:row>
-      <xdr:rowOff>115455</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="53" name="カギ線コネクタ 54">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3992C3E9-474E-415C-B487-DAA67B3F26DD}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvCxnSpPr>
-          <a:stCxn id="133" idx="0"/>
-          <a:endCxn id="55" idx="2"/>
-        </xdr:cNvCxnSpPr>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm rot="16200000" flipV="1">
-          <a:off x="-102155" y="3907813"/>
-          <a:ext cx="1831776" cy="166235"/>
-        </a:xfrm>
-        <a:prstGeom prst="bentConnector3">
-          <a:avLst>
-            <a:gd name="adj1" fmla="val 50000"/>
-          </a:avLst>
-        </a:prstGeom>
-        <a:ln w="12700">
-          <a:solidFill>
-            <a:schemeClr val="tx1"/>
-          </a:solidFill>
-          <a:headEnd type="none" w="med" len="med"/>
-          <a:tailEnd type="arrow" w="med" len="med"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>161636</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>92363</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>276678</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>68037</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="7" name="カギ線コネクタ 54">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8CC351B6-DD50-46E8-8B0A-5010E6D935AA}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvCxnSpPr>
-          <a:endCxn id="36" idx="0"/>
-        </xdr:cNvCxnSpPr>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="1316181" y="2620818"/>
-          <a:ext cx="980952" cy="298946"/>
-        </a:xfrm>
-        <a:prstGeom prst="bentConnector2">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln w="12700">
-          <a:solidFill>
-            <a:schemeClr val="tx1"/>
-          </a:solidFill>
-          <a:headEnd type="none" w="med" len="med"/>
-          <a:tailEnd type="arrow" w="med" len="med"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
@@ -9069,7 +8862,7 @@
               <a:ea typeface="Meiryo UI" pitchFamily="50" charset="-128"/>
               <a:cs typeface="Meiryo UI" pitchFamily="50" charset="-128"/>
             </a:rPr>
-            <a:t>G1-5-1</a:t>
+            <a:t>G1-6-1</a:t>
           </a:r>
         </a:p>
         <a:p>
@@ -9122,73 +8915,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>197827</xdr:colOff>
-      <xdr:row>23</xdr:row>
-      <xdr:rowOff>65943</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>212480</xdr:colOff>
-      <xdr:row>41</xdr:row>
-      <xdr:rowOff>80596</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="11" name="直線矢印コネクタ 10">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7C31055E-F728-46A6-902A-B9EB3000FCC9}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvCxnSpPr/>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm flipH="1" flipV="1">
-          <a:off x="2146789" y="3875943"/>
-          <a:ext cx="14653" cy="2916115"/>
-        </a:xfrm>
-        <a:prstGeom prst="straightConnector1">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln w="12700">
-          <a:solidFill>
-            <a:sysClr val="windowText" lastClr="000000"/>
-          </a:solidFill>
-          <a:headEnd type="none" w="med" len="med"/>
-          <a:tailEnd type="arrow" w="med" len="med"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>56173</xdr:colOff>
-      <xdr:row>10</xdr:row>
-      <xdr:rowOff>149127</xdr:rowOff>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>249434</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>52496</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>13</xdr:col>
-      <xdr:colOff>134343</xdr:colOff>
-      <xdr:row>12</xdr:row>
-      <xdr:rowOff>135686</xdr:rowOff>
+      <xdr:colOff>37713</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>39055</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -9203,8 +8939,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2875573" y="1856007"/>
-          <a:ext cx="923990" cy="306599"/>
+          <a:off x="2858456" y="1929887"/>
+          <a:ext cx="947844" cy="304059"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -9325,7 +9061,7 @@
               <a:ea typeface="Meiryo UI" pitchFamily="50" charset="-128"/>
               <a:cs typeface="Meiryo UI" pitchFamily="50" charset="-128"/>
             </a:rPr>
-            <a:t>画像投稿</a:t>
+            <a:t>画像投稿へ</a:t>
           </a:r>
           <a:r>
             <a:rPr lang="en-US" altLang="ja-JP" sz="1000">
@@ -9356,7 +9092,7 @@
       <xdr:col>13</xdr:col>
       <xdr:colOff>102195</xdr:colOff>
       <xdr:row>19</xdr:row>
-      <xdr:rowOff>122078</xdr:rowOff>
+      <xdr:rowOff>122816</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -9371,8 +9107,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2859374" y="2953886"/>
-          <a:ext cx="928774" cy="304797"/>
+          <a:off x="2922938" y="2966149"/>
+          <a:ext cx="947844" cy="304058"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -9493,7 +9229,7 @@
               <a:ea typeface="Meiryo UI" pitchFamily="50" charset="-128"/>
               <a:cs typeface="Meiryo UI" pitchFamily="50" charset="-128"/>
             </a:rPr>
-            <a:t>マイページ</a:t>
+            <a:t>マイページへ</a:t>
           </a:r>
           <a:r>
             <a:rPr lang="en-US" altLang="ja-JP" sz="1000">
@@ -9524,7 +9260,7 @@
       <xdr:col>13</xdr:col>
       <xdr:colOff>11349</xdr:colOff>
       <xdr:row>36</xdr:row>
-      <xdr:rowOff>115512</xdr:rowOff>
+      <xdr:rowOff>124584</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -9539,8 +9275,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2754710" y="5743423"/>
-          <a:ext cx="920502" cy="301075"/>
+          <a:off x="2827211" y="5666667"/>
+          <a:ext cx="952725" cy="304058"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -9661,7 +9397,7 @@
               <a:ea typeface="Meiryo UI" pitchFamily="50" charset="-128"/>
               <a:cs typeface="Meiryo UI" pitchFamily="50" charset="-128"/>
             </a:rPr>
-            <a:t>コメント</a:t>
+            <a:t>コメントへ</a:t>
           </a:r>
           <a:r>
             <a:rPr lang="en-US" altLang="ja-JP" sz="1000">
@@ -9907,63 +9643,6 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>16</xdr:col>
-      <xdr:colOff>276993</xdr:colOff>
-      <xdr:row>13</xdr:row>
-      <xdr:rowOff>36635</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>19</xdr:col>
-      <xdr:colOff>73269</xdr:colOff>
-      <xdr:row>13</xdr:row>
-      <xdr:rowOff>43512</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="16" name="直線矢印コネクタ 15">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9A408D24-75B7-4667-A012-591388615C01}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvCxnSpPr/>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm flipV="1">
-          <a:off x="4788033" y="2223575"/>
-          <a:ext cx="642096" cy="6877"/>
-        </a:xfrm>
-        <a:prstGeom prst="straightConnector1">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln w="12700">
-          <a:solidFill>
-            <a:sysClr val="windowText" lastClr="000000"/>
-          </a:solidFill>
-          <a:headEnd type="none" w="med" len="med"/>
-          <a:tailEnd type="arrow" w="med" len="med"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>16</xdr:col>
       <xdr:colOff>131869</xdr:colOff>
       <xdr:row>11</xdr:row>
       <xdr:rowOff>9629</xdr:rowOff>
@@ -10110,7 +9789,7 @@
               <a:ea typeface="Meiryo UI" pitchFamily="50" charset="-128"/>
               <a:cs typeface="Meiryo UI" pitchFamily="50" charset="-128"/>
             </a:rPr>
-            <a:t>投稿する</a:t>
+            <a:t>投稿</a:t>
           </a:r>
           <a:r>
             <a:rPr lang="en-US" altLang="ja-JP" sz="1000">
@@ -10297,63 +9976,6 @@
         </a:p>
       </xdr:txBody>
     </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>313593</xdr:colOff>
-      <xdr:row>14</xdr:row>
-      <xdr:rowOff>59837</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>19</xdr:col>
-      <xdr:colOff>12212</xdr:colOff>
-      <xdr:row>14</xdr:row>
-      <xdr:rowOff>61058</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="19" name="直線矢印コネクタ 18">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A4A0AB4F-6A9E-4E18-860E-0D3A1568E5E7}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvCxnSpPr/>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm flipH="1" flipV="1">
-          <a:off x="4794153" y="2406797"/>
-          <a:ext cx="574919" cy="1221"/>
-        </a:xfrm>
-        <a:prstGeom prst="straightConnector1">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln w="12700">
-          <a:solidFill>
-            <a:sysClr val="windowText" lastClr="000000"/>
-          </a:solidFill>
-          <a:headEnd type="none" w="med" len="med"/>
-          <a:tailEnd type="arrow" w="med" len="med"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
@@ -10866,7 +10488,7 @@
               <a:ea typeface="Meiryo UI" pitchFamily="50" charset="-128"/>
               <a:cs typeface="Meiryo UI" pitchFamily="50" charset="-128"/>
             </a:rPr>
-            <a:t>G1-6-1</a:t>
+            <a:t>G1-5</a:t>
           </a:r>
         </a:p>
         <a:p>
@@ -10907,151 +10529,6 @@
             <a:solidFill>
               <a:schemeClr val="tx1"/>
             </a:solidFill>
-            <a:latin typeface="Meiryo UI" pitchFamily="50" charset="-128"/>
-            <a:ea typeface="Meiryo UI" pitchFamily="50" charset="-128"/>
-            <a:cs typeface="Meiryo UI" pitchFamily="50" charset="-128"/>
-          </a:endParaRPr>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>36</xdr:col>
-      <xdr:colOff>25593</xdr:colOff>
-      <xdr:row>12</xdr:row>
-      <xdr:rowOff>148176</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>38</xdr:col>
-      <xdr:colOff>268374</xdr:colOff>
-      <xdr:row>14</xdr:row>
-      <xdr:rowOff>138469</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="28" name="テキスト ボックス 15">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D7DEAA82-D543-40E3-BBF7-99F10123DD8A}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr txBox="1"/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="10231138" y="2150397"/>
-          <a:ext cx="789319" cy="305603"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-      </xdr:spPr>
-      <xdr:txBody>
-        <a:bodyPr wrap="square" rtlCol="0">
-          <a:spAutoFit/>
-        </a:bodyPr>
-        <a:lstStyle>
-          <a:defPPr>
-            <a:defRPr lang="ja-JP"/>
-          </a:defPPr>
-          <a:lvl1pPr marL="0" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-            <a:defRPr kumimoji="1" sz="1800" kern="1200">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl1pPr>
-          <a:lvl2pPr marL="457200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-            <a:defRPr kumimoji="1" sz="1800" kern="1200">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl2pPr>
-          <a:lvl3pPr marL="914400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-            <a:defRPr kumimoji="1" sz="1800" kern="1200">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl3pPr>
-          <a:lvl4pPr marL="1371600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-            <a:defRPr kumimoji="1" sz="1800" kern="1200">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl4pPr>
-          <a:lvl5pPr marL="1828800" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-            <a:defRPr kumimoji="1" sz="1800" kern="1200">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl5pPr>
-          <a:lvl6pPr marL="2286000" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-            <a:defRPr kumimoji="1" sz="1800" kern="1200">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl6pPr>
-          <a:lvl7pPr marL="2743200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-            <a:defRPr kumimoji="1" sz="1800" kern="1200">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl7pPr>
-          <a:lvl8pPr marL="3200400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-            <a:defRPr kumimoji="1" sz="1800" kern="1200">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl8pPr>
-          <a:lvl9pPr marL="3657600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-            <a:defRPr kumimoji="1" sz="1800" kern="1200">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl9pPr>
-        </a:lstStyle>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1000">
             <a:latin typeface="Meiryo UI" pitchFamily="50" charset="-128"/>
             <a:ea typeface="Meiryo UI" pitchFamily="50" charset="-128"/>
             <a:cs typeface="Meiryo UI" pitchFamily="50" charset="-128"/>
@@ -11227,63 +10704,6 @@
         </a:p>
       </xdr:txBody>
     </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>272073</xdr:colOff>
-      <xdr:row>20</xdr:row>
-      <xdr:rowOff>150628</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>279104</xdr:colOff>
-      <xdr:row>20</xdr:row>
-      <xdr:rowOff>155087</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="25" name="直線矢印コネクタ 24">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4605A02A-4118-4553-8509-5A5EE9208C62}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvCxnSpPr/>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm flipH="1">
-          <a:off x="2823887" y="3446721"/>
-          <a:ext cx="857636" cy="4459"/>
-        </a:xfrm>
-        <a:prstGeom prst="straightConnector1">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln w="12700">
-          <a:solidFill>
-            <a:sysClr val="windowText" lastClr="000000"/>
-          </a:solidFill>
-          <a:headEnd type="none" w="med" len="med"/>
-          <a:tailEnd type="arrow" w="med" len="med"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
@@ -11801,7 +11221,7 @@
               <a:ea typeface="Meiryo UI" pitchFamily="50" charset="-128"/>
               <a:cs typeface="Meiryo UI" pitchFamily="50" charset="-128"/>
             </a:rPr>
-            <a:t>G1-5-2</a:t>
+            <a:t>G1-6-2</a:t>
           </a:r>
         </a:p>
         <a:p>
@@ -11999,16 +11419,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>260085</xdr:colOff>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>38622</xdr:colOff>
       <xdr:row>12</xdr:row>
       <xdr:rowOff>132636</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>30</xdr:col>
-      <xdr:colOff>44366</xdr:colOff>
-      <xdr:row>60</xdr:row>
-      <xdr:rowOff>57332</xdr:rowOff>
+      <xdr:colOff>44364</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>113480</xdr:rowOff>
     </xdr:to>
     <xdr:grpSp>
       <xdr:nvGrpSpPr>
@@ -12023,48 +11443,12 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="1641210" y="2180511"/>
-          <a:ext cx="6689906" cy="7697096"/>
-          <a:chOff x="1837707" y="2169173"/>
-          <a:chExt cx="7711717" cy="7542298"/>
+          <a:off x="6732580" y="2178747"/>
+          <a:ext cx="2043034" cy="3314594"/>
+          <a:chOff x="7316992" y="2169173"/>
+          <a:chExt cx="2232432" cy="3313808"/>
         </a:xfrm>
       </xdr:grpSpPr>
-      <xdr:cxnSp macro="">
-        <xdr:nvCxnSpPr>
-          <xdr:cNvPr id="41" name="直線コネクタ 40">
-            <a:extLst>
-              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D7DE720B-3A57-1DE7-C0E0-816A49072351}"/>
-              </a:ext>
-            </a:extLst>
-          </xdr:cNvPr>
-          <xdr:cNvCxnSpPr/>
-        </xdr:nvCxnSpPr>
-        <xdr:spPr>
-          <a:xfrm flipV="1">
-            <a:off x="1837707" y="9699260"/>
-            <a:ext cx="6704135" cy="12211"/>
-          </a:xfrm>
-          <a:prstGeom prst="line">
-            <a:avLst/>
-          </a:prstGeom>
-          <a:ln w="12700"/>
-        </xdr:spPr>
-        <xdr:style>
-          <a:lnRef idx="1">
-            <a:schemeClr val="dk1"/>
-          </a:lnRef>
-          <a:fillRef idx="0">
-            <a:schemeClr val="dk1"/>
-          </a:fillRef>
-          <a:effectRef idx="0">
-            <a:schemeClr val="dk1"/>
-          </a:effectRef>
-          <a:fontRef idx="minor">
-            <a:schemeClr val="tx1"/>
-          </a:fontRef>
-        </xdr:style>
-      </xdr:cxnSp>
       <xdr:cxnSp macro="">
         <xdr:nvCxnSpPr>
           <xdr:cNvPr id="42" name="直線コネクタ 41">
@@ -12144,291 +11528,6 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>10253</xdr:colOff>
-      <xdr:row>23</xdr:row>
-      <xdr:rowOff>62827</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>257907</xdr:colOff>
-      <xdr:row>36</xdr:row>
-      <xdr:rowOff>111107</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="47" name="カギ線コネクタ 54">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0B1F57BB-E85E-406F-AF02-4064B2ADA85A}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvCxnSpPr>
-          <a:endCxn id="3" idx="1"/>
-        </xdr:cNvCxnSpPr>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm rot="16200000" flipH="1">
-          <a:off x="2017550" y="4417709"/>
-          <a:ext cx="2151608" cy="1093160"/>
-        </a:xfrm>
-        <a:prstGeom prst="bentConnector2">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln w="12700">
-          <a:solidFill>
-            <a:schemeClr val="tx1"/>
-          </a:solidFill>
-          <a:headEnd type="none" w="med" len="med"/>
-          <a:tailEnd type="arrow" w="med" len="med"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>104822</xdr:colOff>
-      <xdr:row>23</xdr:row>
-      <xdr:rowOff>54433</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>240083</xdr:colOff>
-      <xdr:row>38</xdr:row>
-      <xdr:rowOff>41754</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="48" name="カギ線コネクタ 54">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9CDCACD2-B30D-4DC8-9C7B-8C9DD42B36F6}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvCxnSpPr/>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm rot="16200000" flipV="1">
-          <a:off x="1783690" y="4455908"/>
-          <a:ext cx="2414238" cy="1262603"/>
-        </a:xfrm>
-        <a:prstGeom prst="bentConnector3">
-          <a:avLst>
-            <a:gd name="adj1" fmla="val 62"/>
-          </a:avLst>
-        </a:prstGeom>
-        <a:ln w="12700">
-          <a:solidFill>
-            <a:schemeClr val="tx1"/>
-          </a:solidFill>
-          <a:headEnd type="none" w="med" len="med"/>
-          <a:tailEnd type="arrow" w="med" len="med"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>179295</xdr:colOff>
-      <xdr:row>14</xdr:row>
-      <xdr:rowOff>156881</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>246533</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>78442</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="49" name="カギ線コネクタ 54">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{ADF5DA5A-3542-4B8D-BA21-8C4EE4808CA2}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvCxnSpPr/>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm rot="10800000" flipV="1">
-          <a:off x="2716755" y="2503841"/>
-          <a:ext cx="913058" cy="401621"/>
-        </a:xfrm>
-        <a:prstGeom prst="bentConnector3">
-          <a:avLst>
-            <a:gd name="adj1" fmla="val 100000"/>
-          </a:avLst>
-        </a:prstGeom>
-        <a:ln w="12700">
-          <a:solidFill>
-            <a:schemeClr val="tx1"/>
-          </a:solidFill>
-          <a:headEnd type="none" w="med" len="med"/>
-          <a:tailEnd type="arrow" w="med" len="med"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>51</xdr:col>
-      <xdr:colOff>255154</xdr:colOff>
-      <xdr:row>33</xdr:row>
-      <xdr:rowOff>56629</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>59</xdr:col>
-      <xdr:colOff>326620</xdr:colOff>
-      <xdr:row>45</xdr:row>
-      <xdr:rowOff>90393</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="50" name="図 11">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F6FCD0B2-68D0-4F16-B9F9-51513F58C252}"/>
-            </a:ext>
-            <a:ext uri="{147F2762-F138-4A5C-976F-8EAC2B608ADB}">
-              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" pred="{2BA31728-2E32-4E32-AF7D-3253CB598636}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="18626974" y="5443969"/>
-          <a:ext cx="5009226" cy="1954004"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln>
-          <a:solidFill>
-            <a:schemeClr val="bg1">
-              <a:lumMod val="65000"/>
-            </a:schemeClr>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>39</xdr:col>
-      <xdr:colOff>302747</xdr:colOff>
-      <xdr:row>47</xdr:row>
-      <xdr:rowOff>93754</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>45</xdr:col>
-      <xdr:colOff>269232</xdr:colOff>
-      <xdr:row>66</xdr:row>
-      <xdr:rowOff>94313</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="51" name="図 7">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{149B1C5D-D840-4438-ACF6-E801F0DB4BDB}"/>
-            </a:ext>
-            <a:ext uri="{147F2762-F138-4A5C-976F-8EAC2B608ADB}">
-              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" pred="{C408F98D-FC15-4FEE-8E0F-4CA813C9D9D8}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="11267927" y="7721374"/>
-          <a:ext cx="3669805" cy="3040939"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln>
-          <a:solidFill>
-            <a:schemeClr val="bg1">
-              <a:lumMod val="75000"/>
-            </a:schemeClr>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>125224</xdr:colOff>
       <xdr:row>6</xdr:row>
@@ -12597,7 +11696,7 @@
               <a:ea typeface="Meiryo UI" pitchFamily="50" charset="-128"/>
               <a:cs typeface="Meiryo UI" pitchFamily="50" charset="-128"/>
             </a:rPr>
-            <a:t>G1-1</a:t>
+            <a:t>G1-2-1</a:t>
           </a:r>
         </a:p>
         <a:p>
@@ -13314,7 +12413,7 @@
               <a:ea typeface="Meiryo UI" pitchFamily="50" charset="-128"/>
               <a:cs typeface="Meiryo UI" pitchFamily="50" charset="-128"/>
             </a:rPr>
-            <a:t>G1-2</a:t>
+            <a:t>G1-2-2</a:t>
           </a:r>
         </a:p>
         <a:p>
@@ -13359,15 +12458,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>140925</xdr:colOff>
+      <xdr:colOff>143560</xdr:colOff>
       <xdr:row>8</xdr:row>
-      <xdr:rowOff>110371</xdr:rowOff>
+      <xdr:rowOff>90154</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>150091</xdr:colOff>
+      <xdr:colOff>152726</xdr:colOff>
       <xdr:row>8</xdr:row>
-      <xdr:rowOff>119253</xdr:rowOff>
+      <xdr:rowOff>99036</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -13378,15 +12477,12 @@
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
-        <xdr:cNvCxnSpPr>
-          <a:stCxn id="56" idx="3"/>
-          <a:endCxn id="107" idx="1"/>
-        </xdr:cNvCxnSpPr>
+        <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1295470" y="1507371"/>
-          <a:ext cx="297803" cy="8882"/>
+          <a:off x="1313436" y="1494532"/>
+          <a:ext cx="301634" cy="8882"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -13415,15 +12511,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>66893</xdr:colOff>
+      <xdr:colOff>81680</xdr:colOff>
       <xdr:row>11</xdr:row>
-      <xdr:rowOff>23091</xdr:rowOff>
+      <xdr:rowOff>34254</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>80818</xdr:colOff>
+      <xdr:colOff>84315</xdr:colOff>
       <xdr:row>13</xdr:row>
-      <xdr:rowOff>55064</xdr:rowOff>
+      <xdr:rowOff>52697</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -13438,13 +12534,13 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipH="1">
-          <a:off x="932802" y="1905000"/>
-          <a:ext cx="13925" cy="355246"/>
+          <a:off x="959087" y="1912905"/>
+          <a:ext cx="2635" cy="334626"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
         </a:prstGeom>
-        <a:ln>
+        <a:ln w="12700">
           <a:tailEnd type="triangle"/>
         </a:ln>
       </xdr:spPr>
@@ -13468,15 +12564,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>242455</xdr:colOff>
+      <xdr:colOff>233101</xdr:colOff>
       <xdr:row>11</xdr:row>
-      <xdr:rowOff>57727</xdr:rowOff>
+      <xdr:rowOff>44793</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>254001</xdr:colOff>
+      <xdr:colOff>234502</xdr:colOff>
       <xdr:row>13</xdr:row>
-      <xdr:rowOff>23090</xdr:rowOff>
+      <xdr:rowOff>48228</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -13491,13 +12587,13 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipV="1">
-          <a:off x="531091" y="1939636"/>
-          <a:ext cx="11546" cy="288636"/>
+          <a:off x="525570" y="1923444"/>
+          <a:ext cx="1401" cy="319618"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
         </a:prstGeom>
-        <a:ln>
+        <a:ln w="12700">
           <a:tailEnd type="triangle"/>
         </a:ln>
       </xdr:spPr>
@@ -13520,75 +12616,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>196274</xdr:colOff>
-      <xdr:row>11</xdr:row>
-      <xdr:rowOff>42232</xdr:rowOff>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>138722</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>78816</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>157942</xdr:colOff>
-      <xdr:row>14</xdr:row>
-      <xdr:rowOff>23088</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="118" name="カギ線コネクタ 54">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{94F318ED-F3C3-4094-B34A-E390D88BB70A}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvCxnSpPr>
-          <a:stCxn id="107" idx="2"/>
-        </xdr:cNvCxnSpPr>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm rot="5400000">
-          <a:off x="1531725" y="1743235"/>
-          <a:ext cx="465765" cy="827578"/>
-        </a:xfrm>
-        <a:prstGeom prst="bentConnector2">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln w="12700">
-          <a:solidFill>
-            <a:schemeClr val="tx1"/>
-          </a:solidFill>
-          <a:headEnd type="none" w="med" len="med"/>
-          <a:tailEnd type="arrow" w="med" len="med"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>23267</xdr:colOff>
-      <xdr:row>37</xdr:row>
-      <xdr:rowOff>103556</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>38967</xdr:colOff>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>154423</xdr:colOff>
       <xdr:row>42</xdr:row>
-      <xdr:rowOff>111154</xdr:rowOff>
+      <xdr:rowOff>86414</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -13603,8 +12640,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="302473" y="6228640"/>
-          <a:ext cx="1132525" cy="821949"/>
+          <a:off x="138722" y="6016478"/>
+          <a:ext cx="1170246" cy="791040"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
           <a:avLst/>
@@ -13747,7 +12784,7 @@
               <a:ea typeface="Meiryo UI" pitchFamily="50" charset="-128"/>
               <a:cs typeface="Meiryo UI" pitchFamily="50" charset="-128"/>
             </a:rPr>
-            <a:t>G1-4</a:t>
+            <a:t>G1-9-1</a:t>
           </a:r>
         </a:p>
         <a:p>
@@ -13792,16 +12829,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>23091</xdr:colOff>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>138544</xdr:colOff>
       <xdr:row>29</xdr:row>
-      <xdr:rowOff>115455</xdr:rowOff>
+      <xdr:rowOff>123702</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>38791</xdr:colOff>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>154245</xdr:colOff>
       <xdr:row>34</xdr:row>
-      <xdr:rowOff>123053</xdr:rowOff>
+      <xdr:rowOff>131300</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -13816,8 +12853,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="311727" y="4906819"/>
-          <a:ext cx="1170246" cy="815779"/>
+          <a:off x="138544" y="4807858"/>
+          <a:ext cx="1170246" cy="791039"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
           <a:avLst/>
@@ -13960,7 +12997,7 @@
               <a:ea typeface="Meiryo UI" pitchFamily="50" charset="-128"/>
               <a:cs typeface="Meiryo UI" pitchFamily="50" charset="-128"/>
             </a:rPr>
-            <a:t>G1-5</a:t>
+            <a:t>G1-9-2</a:t>
           </a:r>
         </a:p>
         <a:p>
@@ -14005,16 +13042,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>30942</xdr:colOff>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>146394</xdr:colOff>
       <xdr:row>34</xdr:row>
-      <xdr:rowOff>123053</xdr:rowOff>
+      <xdr:rowOff>131300</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>31118</xdr:colOff>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>146572</xdr:colOff>
       <xdr:row>37</xdr:row>
-      <xdr:rowOff>103556</xdr:rowOff>
+      <xdr:rowOff>78816</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -14032,13 +13069,13 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipH="1" flipV="1">
-          <a:off x="868560" y="5759526"/>
-          <a:ext cx="176" cy="469114"/>
+          <a:off x="723667" y="5598897"/>
+          <a:ext cx="178" cy="417581"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
         </a:prstGeom>
-        <a:ln>
+        <a:ln w="12700">
           <a:tailEnd type="triangle"/>
         </a:ln>
       </xdr:spPr>
@@ -14061,16 +13098,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>38968</xdr:colOff>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>154424</xdr:colOff>
       <xdr:row>23</xdr:row>
-      <xdr:rowOff>57375</xdr:rowOff>
+      <xdr:rowOff>82471</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>23268</xdr:colOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>140196</xdr:colOff>
       <xdr:row>40</xdr:row>
-      <xdr:rowOff>26537</xdr:rowOff>
+      <xdr:rowOff>4271</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -14087,13 +13124,13 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm rot="5400000">
-          <a:off x="337377" y="4999898"/>
-          <a:ext cx="2737956" cy="542712"/>
+          <a:off x="297741" y="4837725"/>
+          <a:ext cx="2585501" cy="563045"/>
         </a:xfrm>
         <a:prstGeom prst="bentConnector2">
           <a:avLst/>
         </a:prstGeom>
-        <a:ln>
+        <a:ln w="12700">
           <a:tailEnd type="triangle"/>
         </a:ln>
       </xdr:spPr>
@@ -14286,7 +13323,7 @@
               <a:ea typeface="Meiryo UI" pitchFamily="50" charset="-128"/>
               <a:cs typeface="Meiryo UI" pitchFamily="50" charset="-128"/>
             </a:rPr>
-            <a:t>G1-6-1</a:t>
+            <a:t>G1-7-1</a:t>
           </a:r>
         </a:p>
         <a:p>
@@ -14508,7 +13545,7 @@
               <a:ea typeface="Meiryo UI" pitchFamily="50" charset="-128"/>
               <a:cs typeface="Meiryo UI" pitchFamily="50" charset="-128"/>
             </a:rPr>
-            <a:t>G1-6-2</a:t>
+            <a:t>G1-7-2</a:t>
           </a:r>
         </a:p>
         <a:p>
@@ -14557,159 +13594,6 @@
         </a:p>
       </xdr:txBody>
     </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>201083</xdr:colOff>
-      <xdr:row>41</xdr:row>
-      <xdr:rowOff>74840</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>30</xdr:col>
-      <xdr:colOff>40821</xdr:colOff>
-      <xdr:row>41</xdr:row>
-      <xdr:rowOff>75715</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="10" name="直線コネクタ 9">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FBAD46F3-4801-4DF9-A37D-026B6A8C2648}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvCxnSpPr/>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm flipV="1">
-          <a:off x="2153708" y="6864804"/>
-          <a:ext cx="6255506" cy="875"/>
-        </a:xfrm>
-        <a:prstGeom prst="line">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln w="12700"/>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="dk1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="dk1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="dk1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>46725</xdr:colOff>
-      <xdr:row>49</xdr:row>
-      <xdr:rowOff>142796</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>25</xdr:col>
-      <xdr:colOff>71461</xdr:colOff>
-      <xdr:row>49</xdr:row>
-      <xdr:rowOff>155011</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="23" name="直線コネクタ 22">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BF56C518-E7B3-4B69-BCFF-E4A64C0AD555}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvCxnSpPr/>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm flipV="1">
-          <a:off x="1184645" y="8209836"/>
-          <a:ext cx="5998816" cy="12215"/>
-        </a:xfrm>
-        <a:prstGeom prst="line">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln w="12700"/>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="dk1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="dk1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="dk1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>193040</xdr:colOff>
-      <xdr:row>54</xdr:row>
-      <xdr:rowOff>101600</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>25</xdr:col>
-      <xdr:colOff>205301</xdr:colOff>
-      <xdr:row>54</xdr:row>
-      <xdr:rowOff>113646</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="29" name="直線コネクタ 28">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{64F82D66-CE70-4BBA-8CED-C188EB916698}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvCxnSpPr/>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm flipV="1">
-          <a:off x="1330960" y="8981440"/>
-          <a:ext cx="5986341" cy="12046"/>
-        </a:xfrm>
-        <a:prstGeom prst="line">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln w="12700"/>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="dk1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="dk1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="dk1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
@@ -14765,177 +13649,6 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>279105</xdr:colOff>
-      <xdr:row>19</xdr:row>
-      <xdr:rowOff>124046</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>279104</xdr:colOff>
-      <xdr:row>19</xdr:row>
-      <xdr:rowOff>135353</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="40" name="直線矢印コネクタ 39">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6E0089EC-3A4D-449E-B677-B845E765A20E}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvCxnSpPr/>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm flipV="1">
-          <a:off x="2830919" y="3260651"/>
-          <a:ext cx="850604" cy="11307"/>
-        </a:xfrm>
-        <a:prstGeom prst="straightConnector1">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln w="12700">
-          <a:solidFill>
-            <a:sysClr val="windowText" lastClr="000000"/>
-          </a:solidFill>
-          <a:headEnd type="none" w="med" len="med"/>
-          <a:tailEnd type="arrow" w="med" len="med"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>255740</xdr:colOff>
-      <xdr:row>35</xdr:row>
-      <xdr:rowOff>151356</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>19</xdr:col>
-      <xdr:colOff>151356</xdr:colOff>
-      <xdr:row>35</xdr:row>
-      <xdr:rowOff>158232</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="66" name="直線矢印コネクタ 65">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{448A9FA8-C94D-409A-8E63-77891F875257}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvCxnSpPr/>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm flipV="1">
-          <a:off x="4765110" y="5918548"/>
-          <a:ext cx="741123" cy="6876"/>
-        </a:xfrm>
-        <a:prstGeom prst="straightConnector1">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln w="12700">
-          <a:solidFill>
-            <a:sysClr val="windowText" lastClr="000000"/>
-          </a:solidFill>
-          <a:headEnd type="none" w="med" len="med"/>
-          <a:tailEnd type="arrow" w="med" len="med"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>245301</xdr:colOff>
-      <xdr:row>37</xdr:row>
-      <xdr:rowOff>120041</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>19</xdr:col>
-      <xdr:colOff>146137</xdr:colOff>
-      <xdr:row>37</xdr:row>
-      <xdr:rowOff>120041</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="67" name="直線矢印コネクタ 66">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D8EDC7B5-003B-4405-8193-2DC4410B49D4}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvCxnSpPr/>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm flipH="1">
-          <a:off x="4754671" y="6210822"/>
-          <a:ext cx="746343" cy="0"/>
-        </a:xfrm>
-        <a:prstGeom prst="straightConnector1">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln w="12700">
-          <a:solidFill>
-            <a:sysClr val="windowText" lastClr="000000"/>
-          </a:solidFill>
-          <a:headEnd type="none" w="med" len="med"/>
-          <a:tailEnd type="arrow" w="med" len="med"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
       <xdr:col>17</xdr:col>
       <xdr:colOff>99165</xdr:colOff>
       <xdr:row>38</xdr:row>
@@ -15104,238 +13817,6 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>151355</xdr:colOff>
-      <xdr:row>23</xdr:row>
-      <xdr:rowOff>104383</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>12183</xdr:colOff>
-      <xdr:row>28</xdr:row>
-      <xdr:rowOff>83585</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="74" name="コネクタ: カギ線 73">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B01F115D-7FA8-7CA7-21DA-17C9B9B440E9}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvCxnSpPr>
-          <a:endCxn id="59" idx="1"/>
-        </xdr:cNvCxnSpPr>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm rot="16200000" flipH="1">
-          <a:off x="3915217" y="4111878"/>
-          <a:ext cx="788174" cy="424499"/>
-        </a:xfrm>
-        <a:prstGeom prst="bentConnector2">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln>
-          <a:solidFill>
-            <a:sysClr val="windowText" lastClr="000000"/>
-          </a:solidFill>
-          <a:headEnd type="none" w="med" len="med"/>
-          <a:tailEnd type="arrow" w="med" len="med"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>140920</xdr:colOff>
-      <xdr:row>23</xdr:row>
-      <xdr:rowOff>93944</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>5220</xdr:colOff>
-      <xdr:row>30</xdr:row>
-      <xdr:rowOff>15658</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="78" name="コネクタ: カギ線 77">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CDE39133-CC44-B313-9E31-28EFBD75A3C3}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvCxnSpPr/>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm rot="16200000" flipV="1">
-          <a:off x="3632549" y="4091836"/>
-          <a:ext cx="1054275" cy="709807"/>
-        </a:xfrm>
-        <a:prstGeom prst="bentConnector3">
-          <a:avLst>
-            <a:gd name="adj1" fmla="val -495"/>
-          </a:avLst>
-        </a:prstGeom>
-        <a:ln>
-          <a:solidFill>
-            <a:sysClr val="windowText" lastClr="000000"/>
-          </a:solidFill>
-          <a:headEnd type="none" w="med" len="med"/>
-          <a:tailEnd type="arrow" w="med" len="med"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>20</xdr:col>
-      <xdr:colOff>41754</xdr:colOff>
-      <xdr:row>27</xdr:row>
-      <xdr:rowOff>73068</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>22</xdr:col>
-      <xdr:colOff>120041</xdr:colOff>
-      <xdr:row>27</xdr:row>
-      <xdr:rowOff>74726</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="86" name="直線矢印コネクタ 85">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E481DEC7-0C72-479C-A717-774FDF2629FB}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvCxnSpPr/>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm flipV="1">
-          <a:off x="5678466" y="4545904"/>
-          <a:ext cx="641959" cy="1658"/>
-        </a:xfrm>
-        <a:prstGeom prst="straightConnector1">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln w="12700">
-          <a:solidFill>
-            <a:sysClr val="windowText" lastClr="000000"/>
-          </a:solidFill>
-          <a:headEnd type="none" w="med" len="med"/>
-          <a:tailEnd type="arrow" w="med" len="med"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>20</xdr:col>
-      <xdr:colOff>26096</xdr:colOff>
-      <xdr:row>29</xdr:row>
-      <xdr:rowOff>41753</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>22</xdr:col>
-      <xdr:colOff>120041</xdr:colOff>
-      <xdr:row>29</xdr:row>
-      <xdr:rowOff>41753</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="87" name="直線矢印コネクタ 86">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{270883A2-E7AA-49CC-BF86-11321B55BE70}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvCxnSpPr/>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm flipH="1">
-          <a:off x="5662808" y="4838178"/>
-          <a:ext cx="657617" cy="0"/>
-        </a:xfrm>
-        <a:prstGeom prst="straightConnector1">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln w="12700">
-          <a:solidFill>
-            <a:sysClr val="windowText" lastClr="000000"/>
-          </a:solidFill>
-          <a:headEnd type="none" w="med" len="med"/>
-          <a:tailEnd type="arrow" w="med" len="med"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
       <xdr:col>19</xdr:col>
       <xdr:colOff>187890</xdr:colOff>
       <xdr:row>25</xdr:row>
@@ -15345,7 +13826,7 @@
       <xdr:col>23</xdr:col>
       <xdr:colOff>1305</xdr:colOff>
       <xdr:row>27</xdr:row>
-      <xdr:rowOff>27441</xdr:rowOff>
+      <xdr:rowOff>33530</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -15360,8 +13841,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5542767" y="4196219"/>
-          <a:ext cx="940757" cy="304058"/>
+          <a:off x="5695825" y="4146863"/>
+          <a:ext cx="972980" cy="304058"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -15483,7 +13964,7 @@
               <a:ea typeface="Meiryo UI" pitchFamily="50" charset="-128"/>
               <a:cs typeface="Meiryo UI" pitchFamily="50" charset="-128"/>
             </a:rPr>
-            <a:t>削除確認</a:t>
+            <a:t>削除</a:t>
           </a:r>
           <a:r>
             <a:rPr lang="en-US" altLang="ja-JP" sz="1000">
@@ -15756,6 +14237,2576 @@
           <a:avLst/>
         </a:prstGeom>
         <a:ln w="12700"/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>232536</xdr:colOff>
+      <xdr:row>45</xdr:row>
+      <xdr:rowOff>107324</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>217548</xdr:colOff>
+      <xdr:row>51</xdr:row>
+      <xdr:rowOff>95075</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="4" name="角丸四角形 92">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{096B544B-BFF0-4550-B29E-C1C798DDC1B9}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3774226" y="7459014"/>
+          <a:ext cx="1165576" cy="953667"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst>
+            <a:gd name="adj" fmla="val 9072"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1"/>
+        </a:solidFill>
+        <a:ln w="12700">
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr rot="0" spcFirstLastPara="0" vert="horz" wrap="square" lIns="91440" tIns="45720" rIns="91440" bIns="45720" numCol="1" spcCol="0" rtlCol="0" fromWordArt="0" anchor="ctr" anchorCtr="0" forceAA="0" compatLnSpc="1">
+          <a:prstTxWarp prst="textNoShape">
+            <a:avLst/>
+          </a:prstTxWarp>
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle>
+          <a:defPPr>
+            <a:defRPr lang="ja-JP"/>
+          </a:defPPr>
+          <a:lvl1pPr marL="0" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr kumimoji="1" sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl1pPr>
+          <a:lvl2pPr marL="457200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr kumimoji="1" sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl2pPr>
+          <a:lvl3pPr marL="914400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr kumimoji="1" sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl3pPr>
+          <a:lvl4pPr marL="1371600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr kumimoji="1" sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl4pPr>
+          <a:lvl5pPr marL="1828800" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr kumimoji="1" sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl5pPr>
+          <a:lvl6pPr marL="2286000" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr kumimoji="1" sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl6pPr>
+          <a:lvl7pPr marL="2743200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr kumimoji="1" sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl7pPr>
+          <a:lvl8pPr marL="3200400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr kumimoji="1" sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl8pPr>
+          <a:lvl9pPr marL="3657600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr kumimoji="1" sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl9pPr>
+        </a:lstStyle>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1050">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="Meiryo UI" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="Meiryo UI" pitchFamily="50" charset="-128"/>
+              <a:cs typeface="Meiryo UI" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>G1-8-1</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1050">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="Meiryo UI" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="Meiryo UI" pitchFamily="50" charset="-128"/>
+              <a:cs typeface="Meiryo UI" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>DM</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1050">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="Meiryo UI" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="Meiryo UI" pitchFamily="50" charset="-128"/>
+              <a:cs typeface="Meiryo UI" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>一覧</a:t>
+          </a:r>
+          <a:br>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1050">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="Meiryo UI" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="Meiryo UI" pitchFamily="50" charset="-128"/>
+              <a:cs typeface="Meiryo UI" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+          </a:br>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1050">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="Meiryo UI" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="Meiryo UI" pitchFamily="50" charset="-128"/>
+              <a:cs typeface="Meiryo UI" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>画面</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1050">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+            <a:latin typeface="Meiryo UI" pitchFamily="50" charset="-128"/>
+            <a:ea typeface="Meiryo UI" pitchFamily="50" charset="-128"/>
+            <a:cs typeface="Meiryo UI" pitchFamily="50" charset="-128"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>143098</xdr:colOff>
+      <xdr:row>45</xdr:row>
+      <xdr:rowOff>125211</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>128111</xdr:colOff>
+      <xdr:row>51</xdr:row>
+      <xdr:rowOff>112962</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="5" name="角丸四角形 92">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{32782198-5EF4-4E5A-999E-65E2EE0A4D30}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5750774" y="7476901"/>
+          <a:ext cx="1165576" cy="953667"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst>
+            <a:gd name="adj" fmla="val 9072"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1"/>
+        </a:solidFill>
+        <a:ln w="12700">
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr rot="0" spcFirstLastPara="0" vert="horz" wrap="square" lIns="91440" tIns="45720" rIns="91440" bIns="45720" numCol="1" spcCol="0" rtlCol="0" fromWordArt="0" anchor="ctr" anchorCtr="0" forceAA="0" compatLnSpc="1">
+          <a:prstTxWarp prst="textNoShape">
+            <a:avLst/>
+          </a:prstTxWarp>
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle>
+          <a:defPPr>
+            <a:defRPr lang="ja-JP"/>
+          </a:defPPr>
+          <a:lvl1pPr marL="0" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr kumimoji="1" sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl1pPr>
+          <a:lvl2pPr marL="457200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr kumimoji="1" sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl2pPr>
+          <a:lvl3pPr marL="914400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr kumimoji="1" sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl3pPr>
+          <a:lvl4pPr marL="1371600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr kumimoji="1" sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl4pPr>
+          <a:lvl5pPr marL="1828800" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr kumimoji="1" sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl5pPr>
+          <a:lvl6pPr marL="2286000" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr kumimoji="1" sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl6pPr>
+          <a:lvl7pPr marL="2743200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr kumimoji="1" sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl7pPr>
+          <a:lvl8pPr marL="3200400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr kumimoji="1" sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl8pPr>
+          <a:lvl9pPr marL="3657600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr kumimoji="1" sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl9pPr>
+        </a:lstStyle>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1050">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="Meiryo UI" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="Meiryo UI" pitchFamily="50" charset="-128"/>
+              <a:cs typeface="Meiryo UI" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>G1-8-2</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1050">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="Meiryo UI" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="Meiryo UI" pitchFamily="50" charset="-128"/>
+              <a:cs typeface="Meiryo UI" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>個人</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1050">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="Meiryo UI" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="Meiryo UI" pitchFamily="50" charset="-128"/>
+              <a:cs typeface="Meiryo UI" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>DM</a:t>
+          </a:r>
+          <a:br>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1050">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="Meiryo UI" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="Meiryo UI" pitchFamily="50" charset="-128"/>
+              <a:cs typeface="Meiryo UI" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+          </a:br>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1050">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="Meiryo UI" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="Meiryo UI" pitchFamily="50" charset="-128"/>
+              <a:cs typeface="Meiryo UI" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>画面</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1050">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+            <a:latin typeface="Meiryo UI" pitchFamily="50" charset="-128"/>
+            <a:ea typeface="Meiryo UI" pitchFamily="50" charset="-128"/>
+            <a:cs typeface="Meiryo UI" pitchFamily="50" charset="-128"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>208415</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>46489</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>222250</xdr:colOff>
+      <xdr:row>47</xdr:row>
+      <xdr:rowOff>103187</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="54" name="コネクタ: カギ線 53">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{970E945D-C219-320E-6529-57670139E7EF}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="16200000" flipH="1">
+          <a:off x="1072015" y="5024890"/>
+          <a:ext cx="3866698" cy="1482272"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector3">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 100088"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:ln w="12700">
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>14431</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>43296</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>223694</xdr:colOff>
+      <xdr:row>50</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="63" name="コネクタ: カギ線 62">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C7A5B71C-246E-8554-DD0A-13567B0040DA}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="16200000" flipV="1">
+          <a:off x="739631" y="5126903"/>
+          <a:ext cx="4242954" cy="1652444"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector3">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 171"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:ln w="12700">
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>151849</xdr:colOff>
+      <xdr:row>45</xdr:row>
+      <xdr:rowOff>78483</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>237537</xdr:colOff>
+      <xdr:row>47</xdr:row>
+      <xdr:rowOff>65041</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="73" name="テキスト ボックス 15">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{15E16121-E611-4AD6-BBB0-AD38C0F958B7}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2470979" y="7353374"/>
+          <a:ext cx="955362" cy="304058"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr wrap="square" rtlCol="0">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle>
+          <a:defPPr>
+            <a:defRPr lang="ja-JP"/>
+          </a:defPPr>
+          <a:lvl1pPr marL="0" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr kumimoji="1" sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl1pPr>
+          <a:lvl2pPr marL="457200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr kumimoji="1" sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl2pPr>
+          <a:lvl3pPr marL="914400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr kumimoji="1" sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl3pPr>
+          <a:lvl4pPr marL="1371600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr kumimoji="1" sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl4pPr>
+          <a:lvl5pPr marL="1828800" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr kumimoji="1" sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl5pPr>
+          <a:lvl6pPr marL="2286000" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr kumimoji="1" sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl6pPr>
+          <a:lvl7pPr marL="2743200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr kumimoji="1" sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl7pPr>
+          <a:lvl8pPr marL="3200400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr kumimoji="1" sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl8pPr>
+          <a:lvl9pPr marL="3657600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr kumimoji="1" sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl9pPr>
+        </a:lstStyle>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1000">
+              <a:latin typeface="Meiryo UI" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="Meiryo UI" pitchFamily="50" charset="-128"/>
+              <a:cs typeface="Meiryo UI" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>[DM</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1000">
+              <a:latin typeface="Meiryo UI" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="Meiryo UI" pitchFamily="50" charset="-128"/>
+              <a:cs typeface="Meiryo UI" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>一覧へ</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1000">
+              <a:latin typeface="Meiryo UI" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="Meiryo UI" pitchFamily="50" charset="-128"/>
+              <a:cs typeface="Meiryo UI" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>]</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1000">
+            <a:latin typeface="Meiryo UI" pitchFamily="50" charset="-128"/>
+            <a:ea typeface="Meiryo UI" pitchFamily="50" charset="-128"/>
+            <a:cs typeface="Meiryo UI" pitchFamily="50" charset="-128"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>41412</xdr:colOff>
+      <xdr:row>50</xdr:row>
+      <xdr:rowOff>27609</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>124463</xdr:colOff>
+      <xdr:row>52</xdr:row>
+      <xdr:rowOff>14167</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="77" name="テキスト ボックス 15">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F4B4C5D9-3BBE-4802-A5A0-310644F912B2}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2650434" y="8096250"/>
+          <a:ext cx="952725" cy="304058"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr wrap="square" rtlCol="0">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle>
+          <a:defPPr>
+            <a:defRPr lang="ja-JP"/>
+          </a:defPPr>
+          <a:lvl1pPr marL="0" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr kumimoji="1" sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl1pPr>
+          <a:lvl2pPr marL="457200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr kumimoji="1" sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl2pPr>
+          <a:lvl3pPr marL="914400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr kumimoji="1" sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl3pPr>
+          <a:lvl4pPr marL="1371600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr kumimoji="1" sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl4pPr>
+          <a:lvl5pPr marL="1828800" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr kumimoji="1" sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl5pPr>
+          <a:lvl6pPr marL="2286000" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr kumimoji="1" sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl6pPr>
+          <a:lvl7pPr marL="2743200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr kumimoji="1" sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl7pPr>
+          <a:lvl8pPr marL="3200400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr kumimoji="1" sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl8pPr>
+          <a:lvl9pPr marL="3657600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr kumimoji="1" sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl9pPr>
+        </a:lstStyle>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1000">
+              <a:latin typeface="Meiryo UI" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="Meiryo UI" pitchFamily="50" charset="-128"/>
+              <a:cs typeface="Meiryo UI" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>[</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1000">
+              <a:latin typeface="Meiryo UI" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="Meiryo UI" pitchFamily="50" charset="-128"/>
+              <a:cs typeface="Meiryo UI" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>戻る</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1000">
+              <a:latin typeface="Meiryo UI" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="Meiryo UI" pitchFamily="50" charset="-128"/>
+              <a:cs typeface="Meiryo UI" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>]</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1000">
+            <a:latin typeface="Meiryo UI" pitchFamily="50" charset="-128"/>
+            <a:ea typeface="Meiryo UI" pitchFamily="50" charset="-128"/>
+            <a:cs typeface="Meiryo UI" pitchFamily="50" charset="-128"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>217387</xdr:colOff>
+      <xdr:row>47</xdr:row>
+      <xdr:rowOff>74369</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>125856</xdr:colOff>
+      <xdr:row>47</xdr:row>
+      <xdr:rowOff>74369</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="80" name="直線矢印コネクタ 79">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9B5F4A8C-44BC-D293-87AC-7F84195BDB72}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4885495" y="7734414"/>
+          <a:ext cx="783739" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="12700">
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>183063</xdr:colOff>
+      <xdr:row>45</xdr:row>
+      <xdr:rowOff>97252</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>267980</xdr:colOff>
+      <xdr:row>47</xdr:row>
+      <xdr:rowOff>80950</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="81" name="テキスト ボックス 15">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{53BDCE63-4926-4181-B50A-773282D7E8AB}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4851171" y="7436937"/>
+          <a:ext cx="960187" cy="304058"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr wrap="square" rtlCol="0">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle>
+          <a:defPPr>
+            <a:defRPr lang="ja-JP"/>
+          </a:defPPr>
+          <a:lvl1pPr marL="0" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr kumimoji="1" sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl1pPr>
+          <a:lvl2pPr marL="457200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr kumimoji="1" sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl2pPr>
+          <a:lvl3pPr marL="914400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr kumimoji="1" sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl3pPr>
+          <a:lvl4pPr marL="1371600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr kumimoji="1" sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl4pPr>
+          <a:lvl5pPr marL="1828800" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr kumimoji="1" sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl5pPr>
+          <a:lvl6pPr marL="2286000" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr kumimoji="1" sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl6pPr>
+          <a:lvl7pPr marL="2743200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr kumimoji="1" sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl7pPr>
+          <a:lvl8pPr marL="3200400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr kumimoji="1" sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl8pPr>
+          <a:lvl9pPr marL="3657600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr kumimoji="1" sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl9pPr>
+        </a:lstStyle>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1000">
+              <a:latin typeface="Meiryo UI" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="Meiryo UI" pitchFamily="50" charset="-128"/>
+              <a:cs typeface="Meiryo UI" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>[</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1000">
+              <a:latin typeface="Meiryo UI" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="Meiryo UI" pitchFamily="50" charset="-128"/>
+              <a:cs typeface="Meiryo UI" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>個人</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1000">
+              <a:latin typeface="Meiryo UI" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="Meiryo UI" pitchFamily="50" charset="-128"/>
+              <a:cs typeface="Meiryo UI" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>DM</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1000">
+              <a:latin typeface="Meiryo UI" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="Meiryo UI" pitchFamily="50" charset="-128"/>
+              <a:cs typeface="Meiryo UI" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>へ</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1000">
+              <a:latin typeface="Meiryo UI" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="Meiryo UI" pitchFamily="50" charset="-128"/>
+              <a:cs typeface="Meiryo UI" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>]</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1000">
+            <a:latin typeface="Meiryo UI" pitchFamily="50" charset="-128"/>
+            <a:ea typeface="Meiryo UI" pitchFamily="50" charset="-128"/>
+            <a:cs typeface="Meiryo UI" pitchFamily="50" charset="-128"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>211667</xdr:colOff>
+      <xdr:row>49</xdr:row>
+      <xdr:rowOff>102973</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>150395</xdr:colOff>
+      <xdr:row>49</xdr:row>
+      <xdr:rowOff>104441</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="83" name="直線矢印コネクタ 82">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1D4D62AF-6894-BC91-DBDD-10E9780FD00C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1" flipV="1">
+          <a:off x="4890614" y="8019585"/>
+          <a:ext cx="816031" cy="1468"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="12700">
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>51486</xdr:colOff>
+      <xdr:row>49</xdr:row>
+      <xdr:rowOff>62929</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>136403</xdr:colOff>
+      <xdr:row>51</xdr:row>
+      <xdr:rowOff>46626</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="85" name="テキスト ボックス 15">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E947705A-38C0-4FC4-82D7-9A772506255D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5011351" y="8043334"/>
+          <a:ext cx="960187" cy="304058"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr wrap="square" rtlCol="0">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle>
+          <a:defPPr>
+            <a:defRPr lang="ja-JP"/>
+          </a:defPPr>
+          <a:lvl1pPr marL="0" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr kumimoji="1" sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl1pPr>
+          <a:lvl2pPr marL="457200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr kumimoji="1" sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl2pPr>
+          <a:lvl3pPr marL="914400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr kumimoji="1" sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl3pPr>
+          <a:lvl4pPr marL="1371600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr kumimoji="1" sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl4pPr>
+          <a:lvl5pPr marL="1828800" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr kumimoji="1" sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl5pPr>
+          <a:lvl6pPr marL="2286000" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr kumimoji="1" sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl6pPr>
+          <a:lvl7pPr marL="2743200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr kumimoji="1" sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl7pPr>
+          <a:lvl8pPr marL="3200400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr kumimoji="1" sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl8pPr>
+          <a:lvl9pPr marL="3657600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr kumimoji="1" sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl9pPr>
+        </a:lstStyle>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1000">
+              <a:latin typeface="Meiryo UI" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="Meiryo UI" pitchFamily="50" charset="-128"/>
+              <a:cs typeface="Meiryo UI" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>[</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1000">
+              <a:latin typeface="Meiryo UI" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="Meiryo UI" pitchFamily="50" charset="-128"/>
+              <a:cs typeface="Meiryo UI" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>戻る</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1000">
+              <a:latin typeface="Meiryo UI" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="Meiryo UI" pitchFamily="50" charset="-128"/>
+              <a:cs typeface="Meiryo UI" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>]</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1000">
+            <a:latin typeface="Meiryo UI" pitchFamily="50" charset="-128"/>
+            <a:ea typeface="Meiryo UI" pitchFamily="50" charset="-128"/>
+            <a:cs typeface="Meiryo UI" pitchFamily="50" charset="-128"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>128111</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>52917</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>30</xdr:col>
+      <xdr:colOff>42333</xdr:colOff>
+      <xdr:row>48</xdr:row>
+      <xdr:rowOff>119087</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="94" name="コネクタ: カギ線 93">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EE04BE58-B15F-CD3C-E34F-4EE99B0F954F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="5" idx="3"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="6943778" y="6699250"/>
+          <a:ext cx="1988555" cy="1177420"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector3">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 100028"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:ln w="12700"/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>181028</xdr:colOff>
+      <xdr:row>46</xdr:row>
+      <xdr:rowOff>127001</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>28</xdr:col>
+      <xdr:colOff>270521</xdr:colOff>
+      <xdr:row>48</xdr:row>
+      <xdr:rowOff>113559</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="97" name="テキスト ボックス 15">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C808D022-108F-45E0-AF77-E709A3FF21E4}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7589361" y="7567084"/>
+          <a:ext cx="978493" cy="304058"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr wrap="square" rtlCol="0">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle>
+          <a:defPPr>
+            <a:defRPr lang="ja-JP"/>
+          </a:defPPr>
+          <a:lvl1pPr marL="0" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr kumimoji="1" sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl1pPr>
+          <a:lvl2pPr marL="457200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr kumimoji="1" sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl2pPr>
+          <a:lvl3pPr marL="914400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr kumimoji="1" sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl3pPr>
+          <a:lvl4pPr marL="1371600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr kumimoji="1" sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl4pPr>
+          <a:lvl5pPr marL="1828800" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr kumimoji="1" sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl5pPr>
+          <a:lvl6pPr marL="2286000" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr kumimoji="1" sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl6pPr>
+          <a:lvl7pPr marL="2743200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr kumimoji="1" sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl7pPr>
+          <a:lvl8pPr marL="3200400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr kumimoji="1" sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl8pPr>
+          <a:lvl9pPr marL="3657600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr kumimoji="1" sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl9pPr>
+        </a:lstStyle>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1000">
+              <a:latin typeface="Meiryo UI" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="Meiryo UI" pitchFamily="50" charset="-128"/>
+              <a:cs typeface="Meiryo UI" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>[</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1000">
+              <a:latin typeface="Meiryo UI" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="Meiryo UI" pitchFamily="50" charset="-128"/>
+              <a:cs typeface="Meiryo UI" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>ホームへ</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1000">
+              <a:latin typeface="Meiryo UI" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="Meiryo UI" pitchFamily="50" charset="-128"/>
+              <a:cs typeface="Meiryo UI" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>]</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1000">
+            <a:latin typeface="Meiryo UI" pitchFamily="50" charset="-128"/>
+            <a:ea typeface="Meiryo UI" pitchFamily="50" charset="-128"/>
+            <a:cs typeface="Meiryo UI" pitchFamily="50" charset="-128"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>160761</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>42233</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>157942</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>88418</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="32" name="コネクタ: カギ線 31">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3162B235-B83C-E28F-36F5-EBA00C1BCD51}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="107" idx="2"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="5400000">
+          <a:off x="1486639" y="1778823"/>
+          <a:ext cx="528463" cy="865283"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector2">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="12700">
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>161193</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>137852</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>181429</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>69229</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="62" name="コネクタ: カギ線 61">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4C1E9F0E-F8AD-8D67-4C6F-CC406F547662}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="55" idx="3"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1326155" y="2663529"/>
+          <a:ext cx="893958" cy="251264"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector3">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 100203"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:ln w="12700">
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>173182</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>24053</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>250151</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>57728</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="79" name="コネクタ: カギ線 78">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CA98D7EF-89C5-CB34-2BCD-851B93B0AF0D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="2520758" y="2217689"/>
+          <a:ext cx="1250757" cy="668675"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector3">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val -385"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:ln w="12700">
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>9770</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>136769</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>247487</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>65128</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="88" name="コネクタ: カギ線 87">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C563A8B4-393F-DC17-86FB-1D621FBD2F08}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="10800000" flipV="1">
+          <a:off x="2647462" y="2504179"/>
+          <a:ext cx="1116948" cy="407052"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector3">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 99854"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:ln w="12700">
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>276795</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>156308</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>55359</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>156308</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="99" name="直線矢印コネクタ 98">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AF8DC8B3-8DB6-9DB9-2140-DD7DB122187A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4966026" y="2204590"/>
+          <a:ext cx="657795" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="12700">
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>280051</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>97693</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>58615</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>100949</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="103" name="直線矢印コネクタ 102">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{62E31E10-D060-33BE-EE1C-7624C7323903}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="4969282" y="2465103"/>
+          <a:ext cx="657795" cy="3256"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="12700">
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>275923</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>120953</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>264583</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>128512</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="112" name="直線矢印コネクタ 111">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4954511E-8776-62D9-E0D9-02806CA2E2F1}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="2895298" y="3273274"/>
+          <a:ext cx="861785" cy="7559"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="12700">
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>268363</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>15119</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>272143</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>26459</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="121" name="直線矢印コネクタ 120">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C7924199-5970-0CB4-9E3C-82F138C07978}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="2887738" y="3484940"/>
+          <a:ext cx="876905" cy="11340"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="12700">
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>124731</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>94494</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>7558</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>105834</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="126" name="コネクタ: カギ線 125">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FEB551AC-AA87-DBD3-E1E6-3042DF4F69A7}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="16200000" flipH="1">
+          <a:off x="4108600" y="3972529"/>
+          <a:ext cx="646340" cy="464911"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector3">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 100292"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:ln w="12700">
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>128512</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>94494</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>3779</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>158750</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="131" name="コネクタ: カギ線 130">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F9F897C5-36A0-A638-3BCE-E3FC1E2C1DD2}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="16200000" flipV="1">
+          <a:off x="3777872" y="4015997"/>
+          <a:ext cx="1016756" cy="748392"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector3">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 558"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:ln w="12700">
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>34018</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>86935</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>120952</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>98274</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="137" name="直線矢印コネクタ 136">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1D256C2A-962B-54CC-9F87-23C817CBFB73}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="5854851" y="4509256"/>
+          <a:ext cx="669018" cy="11339"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="12700">
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>33524</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>37798</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>113393</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>38227</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="140" name="直線矢印コネクタ 139">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1B0A5115-E459-3F81-4466-74BC85BE9E20}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="5854357" y="4777619"/>
+          <a:ext cx="661953" cy="429"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="12700">
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>247402</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>140195</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>152565</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>148442</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="143" name="直線矢印コネクタ 142">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A495B012-DB7D-EB08-3E1B-BF23FE925C2F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4931558" y="5892305"/>
+          <a:ext cx="783442" cy="8247"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="12700">
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>239156</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>127824</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>152565</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>131948</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="145" name="直線矢印コネクタ 144">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4BEBF842-A37B-599F-81F1-3D0F101F95CD}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="4923312" y="6201558"/>
+          <a:ext cx="791688" cy="4124"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="12700">
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>133047</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>60476</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>257906</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>111107</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="149" name="コネクタ: カギ線 148">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A1DBFF17-77D9-90BE-3659-59F088FECE94}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:endCxn id="3" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="16200000" flipH="1">
+          <a:off x="2196114" y="4359504"/>
+          <a:ext cx="2094726" cy="995717"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector2">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="12700">
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>272896</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>47231</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>257149</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="151" name="コネクタ: カギ線 150">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1B2CF45F-D716-FAE3-8CCC-CDE6B883A094}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="16200000" flipV="1">
+          <a:off x="2046696" y="4376778"/>
+          <a:ext cx="2314339" cy="1159791"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector3">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 340"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:ln w="12700">
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>107725</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>62369</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>30</xdr:col>
+      <xdr:colOff>35776</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>26832</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="157" name="コネクタ: カギ線 156">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1245F8BE-B5BC-2FC0-2316-A4F945565450}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="10800000">
+          <a:off x="2468852" y="3872369"/>
+          <a:ext cx="6421149" cy="3184181"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector3">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 100003"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:ln w="12700">
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>146394</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>61679</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>153342</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>123702</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="165" name="直線矢印コネクタ 164">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7396D167-FBF0-9CD4-8FEB-FACD4E9874DE}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="133" idx="0"/>
+          <a:endCxn id="55" idx="2"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="723667" y="3022263"/>
+          <a:ext cx="6948" cy="1785595"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="12700">
+          <a:tailEnd type="triangle"/>
+        </a:ln>
       </xdr:spPr>
       <xdr:style>
         <a:lnRef idx="1">
@@ -16070,14 +17121,14 @@
       <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13"/>
   <cols>
-    <col min="1" max="1" width="14.28515625" style="13" customWidth="1"/>
-    <col min="2" max="2" width="26.140625" style="13" customWidth="1"/>
-    <col min="3" max="3" width="36.28515625" style="13" customWidth="1"/>
-    <col min="4" max="4" width="13.85546875" style="13" customWidth="1"/>
-    <col min="5" max="5" width="18.28515625" style="13" customWidth="1"/>
-    <col min="6" max="6" width="50.85546875" style="13" customWidth="1"/>
+    <col min="1" max="1" width="14.26953125" style="13" customWidth="1"/>
+    <col min="2" max="2" width="26.1796875" style="13" customWidth="1"/>
+    <col min="3" max="3" width="36.26953125" style="13" customWidth="1"/>
+    <col min="4" max="4" width="13.81640625" style="13" customWidth="1"/>
+    <col min="5" max="5" width="18.26953125" style="13" customWidth="1"/>
+    <col min="6" max="6" width="50.81640625" style="13" customWidth="1"/>
     <col min="7" max="16384" width="9" style="13"/>
   </cols>
   <sheetData>
@@ -16181,227 +17232,227 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{40D432B0-C4D9-41C7-BD18-CAA0DE2FB027}">
   <dimension ref="A1:AI44"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="70" zoomScaleNormal="70" zoomScaleSheetLayoutView="100" workbookViewId="0">
+    <sheetView showGridLines="0" topLeftCell="A3" zoomScale="50" zoomScaleNormal="70" zoomScaleSheetLayoutView="100" workbookViewId="0">
       <selection activeCell="AI54" sqref="AI54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.75" customHeight="1"/>
   <cols>
-    <col min="1" max="4" width="4.140625" style="1" customWidth="1"/>
-    <col min="5" max="6" width="4.140625" style="11" customWidth="1"/>
-    <col min="7" max="35" width="4.140625" style="1" customWidth="1"/>
+    <col min="1" max="4" width="4.1796875" style="1" customWidth="1"/>
+    <col min="5" max="6" width="4.1796875" style="11" customWidth="1"/>
+    <col min="7" max="35" width="4.1796875" style="1" customWidth="1"/>
     <col min="36" max="39" width="4" style="1" customWidth="1"/>
     <col min="40" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:35" ht="21.95" customHeight="1">
-      <c r="A1" s="43" t="s">
+    <row r="1" spans="1:35" ht="22" customHeight="1">
+      <c r="A1" s="47" t="s">
         <v>19</v>
       </c>
-      <c r="B1" s="43"/>
-      <c r="C1" s="43"/>
-      <c r="D1" s="43"/>
-      <c r="E1" s="43"/>
-      <c r="F1" s="43"/>
-      <c r="G1" s="43"/>
-      <c r="H1" s="43"/>
-      <c r="I1" s="43"/>
-      <c r="J1" s="43"/>
-      <c r="K1" s="43"/>
-      <c r="L1" s="43"/>
-      <c r="M1" s="43"/>
-      <c r="N1" s="43"/>
-      <c r="O1" s="43"/>
-      <c r="P1" s="43"/>
-      <c r="Q1" s="43"/>
-      <c r="R1" s="43"/>
-      <c r="S1" s="43"/>
-      <c r="T1" s="43"/>
-      <c r="U1" s="43"/>
-      <c r="V1" s="43"/>
-      <c r="W1" s="43"/>
-      <c r="X1" s="43"/>
-      <c r="Y1" s="43"/>
-      <c r="Z1" s="43"/>
-      <c r="AA1" s="43"/>
-      <c r="AB1" s="43"/>
-      <c r="AC1" s="43"/>
-      <c r="AD1" s="43"/>
-      <c r="AE1" s="43"/>
-      <c r="AF1" s="43"/>
-      <c r="AG1" s="43"/>
-      <c r="AH1" s="43"/>
-      <c r="AI1" s="43"/>
+      <c r="B1" s="47"/>
+      <c r="C1" s="47"/>
+      <c r="D1" s="47"/>
+      <c r="E1" s="47"/>
+      <c r="F1" s="47"/>
+      <c r="G1" s="47"/>
+      <c r="H1" s="47"/>
+      <c r="I1" s="47"/>
+      <c r="J1" s="47"/>
+      <c r="K1" s="47"/>
+      <c r="L1" s="47"/>
+      <c r="M1" s="47"/>
+      <c r="N1" s="47"/>
+      <c r="O1" s="47"/>
+      <c r="P1" s="47"/>
+      <c r="Q1" s="47"/>
+      <c r="R1" s="47"/>
+      <c r="S1" s="47"/>
+      <c r="T1" s="47"/>
+      <c r="U1" s="47"/>
+      <c r="V1" s="47"/>
+      <c r="W1" s="47"/>
+      <c r="X1" s="47"/>
+      <c r="Y1" s="47"/>
+      <c r="Z1" s="47"/>
+      <c r="AA1" s="47"/>
+      <c r="AB1" s="47"/>
+      <c r="AC1" s="47"/>
+      <c r="AD1" s="47"/>
+      <c r="AE1" s="47"/>
+      <c r="AF1" s="47"/>
+      <c r="AG1" s="47"/>
+      <c r="AH1" s="47"/>
+      <c r="AI1" s="47"/>
     </row>
-    <row r="2" spans="1:35" ht="12.95" customHeight="1">
-      <c r="A2" s="31" t="s">
+    <row r="2" spans="1:35" ht="13" customHeight="1">
+      <c r="A2" s="35" t="s">
         <v>20</v>
       </c>
-      <c r="B2" s="32"/>
-      <c r="C2" s="32"/>
-      <c r="D2" s="32"/>
-      <c r="E2" s="32"/>
-      <c r="F2" s="33"/>
-      <c r="G2" s="31" t="s">
+      <c r="B2" s="36"/>
+      <c r="C2" s="36"/>
+      <c r="D2" s="36"/>
+      <c r="E2" s="36"/>
+      <c r="F2" s="37"/>
+      <c r="G2" s="35" t="s">
         <v>21</v>
       </c>
-      <c r="H2" s="32"/>
-      <c r="I2" s="32"/>
-      <c r="J2" s="32"/>
-      <c r="K2" s="32"/>
-      <c r="L2" s="33"/>
-      <c r="M2" s="44" t="s">
+      <c r="H2" s="36"/>
+      <c r="I2" s="36"/>
+      <c r="J2" s="36"/>
+      <c r="K2" s="36"/>
+      <c r="L2" s="37"/>
+      <c r="M2" s="48" t="s">
         <v>22</v>
       </c>
-      <c r="N2" s="44"/>
-      <c r="O2" s="44"/>
-      <c r="P2" s="44"/>
-      <c r="Q2" s="44"/>
-      <c r="R2" s="44"/>
-      <c r="S2" s="44"/>
-      <c r="T2" s="44"/>
-      <c r="U2" s="44"/>
-      <c r="V2" s="44"/>
-      <c r="W2" s="44"/>
-      <c r="X2" s="31" t="s">
+      <c r="N2" s="48"/>
+      <c r="O2" s="48"/>
+      <c r="P2" s="48"/>
+      <c r="Q2" s="48"/>
+      <c r="R2" s="48"/>
+      <c r="S2" s="48"/>
+      <c r="T2" s="48"/>
+      <c r="U2" s="48"/>
+      <c r="V2" s="48"/>
+      <c r="W2" s="48"/>
+      <c r="X2" s="35" t="s">
         <v>23</v>
       </c>
-      <c r="Y2" s="32"/>
-      <c r="Z2" s="32"/>
-      <c r="AA2" s="32"/>
-      <c r="AB2" s="32"/>
-      <c r="AC2" s="33"/>
-      <c r="AD2" s="31" t="s">
+      <c r="Y2" s="36"/>
+      <c r="Z2" s="36"/>
+      <c r="AA2" s="36"/>
+      <c r="AB2" s="36"/>
+      <c r="AC2" s="37"/>
+      <c r="AD2" s="35" t="s">
         <v>24</v>
       </c>
-      <c r="AE2" s="32"/>
-      <c r="AF2" s="33"/>
-      <c r="AG2" s="31" t="s">
+      <c r="AE2" s="36"/>
+      <c r="AF2" s="37"/>
+      <c r="AG2" s="35" t="s">
         <v>25</v>
       </c>
-      <c r="AH2" s="32"/>
-      <c r="AI2" s="33"/>
+      <c r="AH2" s="36"/>
+      <c r="AI2" s="37"/>
     </row>
-    <row r="3" spans="1:35" ht="12.95" customHeight="1">
-      <c r="A3" s="45" t="s">
+    <row r="3" spans="1:35" ht="13" customHeight="1">
+      <c r="A3" s="49" t="s">
         <v>26</v>
       </c>
-      <c r="B3" s="46"/>
-      <c r="C3" s="46"/>
-      <c r="D3" s="46"/>
-      <c r="E3" s="46"/>
-      <c r="F3" s="47"/>
-      <c r="G3" s="45" t="s">
+      <c r="B3" s="50"/>
+      <c r="C3" s="50"/>
+      <c r="D3" s="50"/>
+      <c r="E3" s="50"/>
+      <c r="F3" s="51"/>
+      <c r="G3" s="49" t="s">
         <v>27</v>
       </c>
-      <c r="H3" s="46"/>
-      <c r="I3" s="46"/>
-      <c r="J3" s="46"/>
-      <c r="K3" s="46"/>
-      <c r="L3" s="47"/>
-      <c r="M3" s="54" t="s">
+      <c r="H3" s="50"/>
+      <c r="I3" s="50"/>
+      <c r="J3" s="50"/>
+      <c r="K3" s="50"/>
+      <c r="L3" s="51"/>
+      <c r="M3" s="58" t="s">
         <v>28</v>
       </c>
-      <c r="N3" s="54"/>
-      <c r="O3" s="54"/>
-      <c r="P3" s="54"/>
-      <c r="Q3" s="54"/>
-      <c r="R3" s="54"/>
-      <c r="S3" s="54"/>
-      <c r="T3" s="54"/>
-      <c r="U3" s="54"/>
-      <c r="V3" s="54"/>
-      <c r="W3" s="54"/>
-      <c r="X3" s="34"/>
-      <c r="Y3" s="35"/>
-      <c r="Z3" s="35"/>
-      <c r="AA3" s="35"/>
-      <c r="AB3" s="35"/>
-      <c r="AC3" s="36"/>
-      <c r="AD3" s="55"/>
-      <c r="AE3" s="56"/>
-      <c r="AF3" s="57"/>
-      <c r="AG3" s="64">
+      <c r="N3" s="58"/>
+      <c r="O3" s="58"/>
+      <c r="P3" s="58"/>
+      <c r="Q3" s="58"/>
+      <c r="R3" s="58"/>
+      <c r="S3" s="58"/>
+      <c r="T3" s="58"/>
+      <c r="U3" s="58"/>
+      <c r="V3" s="58"/>
+      <c r="W3" s="58"/>
+      <c r="X3" s="38"/>
+      <c r="Y3" s="39"/>
+      <c r="Z3" s="39"/>
+      <c r="AA3" s="39"/>
+      <c r="AB3" s="39"/>
+      <c r="AC3" s="40"/>
+      <c r="AD3" s="59"/>
+      <c r="AE3" s="60"/>
+      <c r="AF3" s="61"/>
+      <c r="AG3" s="68">
         <v>45200</v>
       </c>
-      <c r="AH3" s="65"/>
-      <c r="AI3" s="65"/>
+      <c r="AH3" s="69"/>
+      <c r="AI3" s="69"/>
     </row>
-    <row r="4" spans="1:35" ht="12.95" customHeight="1">
-      <c r="A4" s="48"/>
-      <c r="B4" s="49"/>
-      <c r="C4" s="49"/>
-      <c r="D4" s="49"/>
-      <c r="E4" s="49"/>
-      <c r="F4" s="50"/>
-      <c r="G4" s="48"/>
-      <c r="H4" s="49"/>
-      <c r="I4" s="49"/>
-      <c r="J4" s="49"/>
-      <c r="K4" s="49"/>
-      <c r="L4" s="50"/>
-      <c r="M4" s="54"/>
-      <c r="N4" s="54"/>
-      <c r="O4" s="54"/>
-      <c r="P4" s="54"/>
-      <c r="Q4" s="54"/>
-      <c r="R4" s="54"/>
-      <c r="S4" s="54"/>
-      <c r="T4" s="54"/>
-      <c r="U4" s="54"/>
-      <c r="V4" s="54"/>
-      <c r="W4" s="54"/>
-      <c r="X4" s="37"/>
-      <c r="Y4" s="38"/>
-      <c r="Z4" s="38"/>
-      <c r="AA4" s="38"/>
-      <c r="AB4" s="38"/>
-      <c r="AC4" s="39"/>
-      <c r="AD4" s="58"/>
-      <c r="AE4" s="59"/>
-      <c r="AF4" s="60"/>
-      <c r="AG4" s="65" t="s">
+    <row r="4" spans="1:35" ht="13" customHeight="1">
+      <c r="A4" s="52"/>
+      <c r="B4" s="53"/>
+      <c r="C4" s="53"/>
+      <c r="D4" s="53"/>
+      <c r="E4" s="53"/>
+      <c r="F4" s="54"/>
+      <c r="G4" s="52"/>
+      <c r="H4" s="53"/>
+      <c r="I4" s="53"/>
+      <c r="J4" s="53"/>
+      <c r="K4" s="53"/>
+      <c r="L4" s="54"/>
+      <c r="M4" s="58"/>
+      <c r="N4" s="58"/>
+      <c r="O4" s="58"/>
+      <c r="P4" s="58"/>
+      <c r="Q4" s="58"/>
+      <c r="R4" s="58"/>
+      <c r="S4" s="58"/>
+      <c r="T4" s="58"/>
+      <c r="U4" s="58"/>
+      <c r="V4" s="58"/>
+      <c r="W4" s="58"/>
+      <c r="X4" s="41"/>
+      <c r="Y4" s="42"/>
+      <c r="Z4" s="42"/>
+      <c r="AA4" s="42"/>
+      <c r="AB4" s="42"/>
+      <c r="AC4" s="43"/>
+      <c r="AD4" s="62"/>
+      <c r="AE4" s="63"/>
+      <c r="AF4" s="64"/>
+      <c r="AG4" s="69" t="s">
         <v>29</v>
       </c>
-      <c r="AH4" s="65"/>
-      <c r="AI4" s="65"/>
+      <c r="AH4" s="69"/>
+      <c r="AI4" s="69"/>
     </row>
     <row r="5" spans="1:35" ht="12">
-      <c r="A5" s="51"/>
-      <c r="B5" s="52"/>
-      <c r="C5" s="52"/>
-      <c r="D5" s="52"/>
-      <c r="E5" s="52"/>
-      <c r="F5" s="53"/>
-      <c r="G5" s="51"/>
-      <c r="H5" s="52"/>
-      <c r="I5" s="52"/>
-      <c r="J5" s="52"/>
-      <c r="K5" s="52"/>
-      <c r="L5" s="53"/>
-      <c r="M5" s="54"/>
-      <c r="N5" s="54"/>
-      <c r="O5" s="54"/>
-      <c r="P5" s="54"/>
-      <c r="Q5" s="54"/>
-      <c r="R5" s="54"/>
-      <c r="S5" s="54"/>
-      <c r="T5" s="54"/>
-      <c r="U5" s="54"/>
-      <c r="V5" s="54"/>
-      <c r="W5" s="54"/>
-      <c r="X5" s="40"/>
-      <c r="Y5" s="41"/>
-      <c r="Z5" s="41"/>
-      <c r="AA5" s="41"/>
-      <c r="AB5" s="41"/>
-      <c r="AC5" s="42"/>
-      <c r="AD5" s="61"/>
-      <c r="AE5" s="62"/>
-      <c r="AF5" s="63"/>
-      <c r="AG5" s="65"/>
-      <c r="AH5" s="65"/>
-      <c r="AI5" s="65"/>
+      <c r="A5" s="55"/>
+      <c r="B5" s="56"/>
+      <c r="C5" s="56"/>
+      <c r="D5" s="56"/>
+      <c r="E5" s="56"/>
+      <c r="F5" s="57"/>
+      <c r="G5" s="55"/>
+      <c r="H5" s="56"/>
+      <c r="I5" s="56"/>
+      <c r="J5" s="56"/>
+      <c r="K5" s="56"/>
+      <c r="L5" s="57"/>
+      <c r="M5" s="58"/>
+      <c r="N5" s="58"/>
+      <c r="O5" s="58"/>
+      <c r="P5" s="58"/>
+      <c r="Q5" s="58"/>
+      <c r="R5" s="58"/>
+      <c r="S5" s="58"/>
+      <c r="T5" s="58"/>
+      <c r="U5" s="58"/>
+      <c r="V5" s="58"/>
+      <c r="W5" s="58"/>
+      <c r="X5" s="44"/>
+      <c r="Y5" s="45"/>
+      <c r="Z5" s="45"/>
+      <c r="AA5" s="45"/>
+      <c r="AB5" s="45"/>
+      <c r="AC5" s="46"/>
+      <c r="AD5" s="65"/>
+      <c r="AE5" s="66"/>
+      <c r="AF5" s="67"/>
+      <c r="AG5" s="69"/>
+      <c r="AH5" s="69"/>
+      <c r="AI5" s="69"/>
     </row>
     <row r="6" spans="1:35" ht="12.75" customHeight="1">
       <c r="A6" s="2"/>
@@ -17766,231 +18817,233 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{45197F39-0E21-47C9-9DC6-F2D83EAC69A3}">
-  <dimension ref="A1:AN44"/>
+  <dimension ref="A1:AL55"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A11" zoomScale="88" zoomScaleNormal="70" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="AB39" sqref="AB39"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="72" zoomScaleNormal="70" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="AG6" sqref="AG6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.75" customHeight="1"/>
   <cols>
-    <col min="1" max="4" width="4.140625" style="1" customWidth="1"/>
-    <col min="5" max="6" width="4.140625" style="11" customWidth="1"/>
-    <col min="7" max="35" width="4.140625" style="1" customWidth="1"/>
+    <col min="1" max="4" width="4.1796875" style="1" customWidth="1"/>
+    <col min="5" max="6" width="4.1796875" style="11" customWidth="1"/>
+    <col min="7" max="35" width="4.1796875" style="1" customWidth="1"/>
     <col min="36" max="39" width="4" style="1" customWidth="1"/>
     <col min="40" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:35" ht="21.95" customHeight="1">
-      <c r="A1" s="43" t="s">
+    <row r="1" spans="1:35" ht="22" customHeight="1">
+      <c r="A1" s="47" t="s">
         <v>19</v>
       </c>
-      <c r="B1" s="43"/>
-      <c r="C1" s="43"/>
-      <c r="D1" s="43"/>
-      <c r="E1" s="43"/>
-      <c r="F1" s="43"/>
-      <c r="G1" s="43"/>
-      <c r="H1" s="43"/>
-      <c r="I1" s="43"/>
-      <c r="J1" s="43"/>
-      <c r="K1" s="43"/>
-      <c r="L1" s="43"/>
-      <c r="M1" s="43"/>
-      <c r="N1" s="43"/>
-      <c r="O1" s="43"/>
-      <c r="P1" s="43"/>
-      <c r="Q1" s="43"/>
-      <c r="R1" s="43"/>
-      <c r="S1" s="43"/>
-      <c r="T1" s="43"/>
-      <c r="U1" s="43"/>
-      <c r="V1" s="43"/>
-      <c r="W1" s="43"/>
-      <c r="X1" s="43"/>
-      <c r="Y1" s="43"/>
-      <c r="Z1" s="43"/>
-      <c r="AA1" s="43"/>
-      <c r="AB1" s="43"/>
-      <c r="AC1" s="43"/>
-      <c r="AD1" s="43"/>
-      <c r="AE1" s="43"/>
-      <c r="AF1" s="43"/>
-      <c r="AG1" s="43"/>
-      <c r="AH1" s="43"/>
-      <c r="AI1" s="43"/>
+      <c r="B1" s="47"/>
+      <c r="C1" s="47"/>
+      <c r="D1" s="47"/>
+      <c r="E1" s="47"/>
+      <c r="F1" s="47"/>
+      <c r="G1" s="47"/>
+      <c r="H1" s="47"/>
+      <c r="I1" s="47"/>
+      <c r="J1" s="47"/>
+      <c r="K1" s="47"/>
+      <c r="L1" s="47"/>
+      <c r="M1" s="47"/>
+      <c r="N1" s="47"/>
+      <c r="O1" s="47"/>
+      <c r="P1" s="47"/>
+      <c r="Q1" s="47"/>
+      <c r="R1" s="47"/>
+      <c r="S1" s="47"/>
+      <c r="T1" s="47"/>
+      <c r="U1" s="47"/>
+      <c r="V1" s="47"/>
+      <c r="W1" s="47"/>
+      <c r="X1" s="47"/>
+      <c r="Y1" s="47"/>
+      <c r="Z1" s="47"/>
+      <c r="AA1" s="47"/>
+      <c r="AB1" s="47"/>
+      <c r="AC1" s="47"/>
+      <c r="AD1" s="47"/>
+      <c r="AE1" s="47"/>
+      <c r="AF1" s="47"/>
+      <c r="AG1" s="47"/>
+      <c r="AH1" s="47"/>
+      <c r="AI1" s="47"/>
     </row>
-    <row r="2" spans="1:35" ht="12.95" customHeight="1">
-      <c r="A2" s="31" t="s">
+    <row r="2" spans="1:35" ht="13" customHeight="1">
+      <c r="A2" s="35" t="s">
         <v>20</v>
       </c>
-      <c r="B2" s="32"/>
-      <c r="C2" s="32"/>
-      <c r="D2" s="32"/>
-      <c r="E2" s="32"/>
-      <c r="F2" s="33"/>
-      <c r="G2" s="31" t="s">
+      <c r="B2" s="36"/>
+      <c r="C2" s="36"/>
+      <c r="D2" s="36"/>
+      <c r="E2" s="36"/>
+      <c r="F2" s="37"/>
+      <c r="G2" s="35" t="s">
         <v>21</v>
       </c>
-      <c r="H2" s="32"/>
-      <c r="I2" s="32"/>
-      <c r="J2" s="32"/>
-      <c r="K2" s="32"/>
-      <c r="L2" s="33"/>
-      <c r="M2" s="44" t="s">
+      <c r="H2" s="36"/>
+      <c r="I2" s="36"/>
+      <c r="J2" s="36"/>
+      <c r="K2" s="36"/>
+      <c r="L2" s="37"/>
+      <c r="M2" s="48" t="s">
         <v>22</v>
       </c>
-      <c r="N2" s="44"/>
-      <c r="O2" s="44"/>
-      <c r="P2" s="44"/>
-      <c r="Q2" s="44"/>
-      <c r="R2" s="44"/>
-      <c r="S2" s="44"/>
-      <c r="T2" s="44"/>
-      <c r="U2" s="44"/>
-      <c r="V2" s="44"/>
-      <c r="W2" s="44"/>
-      <c r="X2" s="31" t="s">
+      <c r="N2" s="48"/>
+      <c r="O2" s="48"/>
+      <c r="P2" s="48"/>
+      <c r="Q2" s="48"/>
+      <c r="R2" s="48"/>
+      <c r="S2" s="48"/>
+      <c r="T2" s="48"/>
+      <c r="U2" s="48"/>
+      <c r="V2" s="48"/>
+      <c r="W2" s="48"/>
+      <c r="X2" s="35" t="s">
         <v>23</v>
       </c>
-      <c r="Y2" s="32"/>
-      <c r="Z2" s="32"/>
-      <c r="AA2" s="32"/>
-      <c r="AB2" s="32"/>
-      <c r="AC2" s="33"/>
-      <c r="AD2" s="31" t="s">
+      <c r="Y2" s="36"/>
+      <c r="Z2" s="36"/>
+      <c r="AA2" s="36"/>
+      <c r="AB2" s="36"/>
+      <c r="AC2" s="37"/>
+      <c r="AD2" s="35" t="s">
         <v>24</v>
       </c>
-      <c r="AE2" s="32"/>
-      <c r="AF2" s="33"/>
-      <c r="AG2" s="31" t="s">
+      <c r="AE2" s="36"/>
+      <c r="AF2" s="37"/>
+      <c r="AG2" s="35" t="s">
         <v>25</v>
       </c>
-      <c r="AH2" s="32"/>
-      <c r="AI2" s="33"/>
+      <c r="AH2" s="36"/>
+      <c r="AI2" s="37"/>
     </row>
-    <row r="3" spans="1:35" ht="12.95" customHeight="1">
-      <c r="A3" s="45" t="s">
+    <row r="3" spans="1:35" ht="13" customHeight="1">
+      <c r="A3" s="49" t="s">
         <v>33</v>
       </c>
-      <c r="B3" s="46"/>
-      <c r="C3" s="46"/>
-      <c r="D3" s="46"/>
-      <c r="E3" s="46"/>
-      <c r="F3" s="47"/>
-      <c r="G3" s="45"/>
-      <c r="H3" s="46"/>
-      <c r="I3" s="46"/>
-      <c r="J3" s="46"/>
-      <c r="K3" s="46"/>
-      <c r="L3" s="47"/>
-      <c r="M3" s="54" t="s">
+      <c r="B3" s="50"/>
+      <c r="C3" s="50"/>
+      <c r="D3" s="50"/>
+      <c r="E3" s="50"/>
+      <c r="F3" s="51"/>
+      <c r="G3" s="49"/>
+      <c r="H3" s="50"/>
+      <c r="I3" s="50"/>
+      <c r="J3" s="50"/>
+      <c r="K3" s="50"/>
+      <c r="L3" s="51"/>
+      <c r="M3" s="58" t="s">
+        <v>37</v>
+      </c>
+      <c r="N3" s="58"/>
+      <c r="O3" s="58"/>
+      <c r="P3" s="58"/>
+      <c r="Q3" s="58"/>
+      <c r="R3" s="58"/>
+      <c r="S3" s="58"/>
+      <c r="T3" s="58"/>
+      <c r="U3" s="58"/>
+      <c r="V3" s="58"/>
+      <c r="W3" s="58"/>
+      <c r="X3" s="38" t="s">
         <v>34</v>
       </c>
-      <c r="N3" s="54"/>
-      <c r="O3" s="54"/>
-      <c r="P3" s="54"/>
-      <c r="Q3" s="54"/>
-      <c r="R3" s="54"/>
-      <c r="S3" s="54"/>
-      <c r="T3" s="54"/>
-      <c r="U3" s="54"/>
-      <c r="V3" s="54"/>
-      <c r="W3" s="54"/>
-      <c r="X3" s="34" t="s">
+      <c r="Y3" s="39"/>
+      <c r="Z3" s="39"/>
+      <c r="AA3" s="39"/>
+      <c r="AB3" s="39"/>
+      <c r="AC3" s="40"/>
+      <c r="AD3" s="49" t="s">
         <v>35</v>
       </c>
-      <c r="Y3" s="35"/>
-      <c r="Z3" s="35"/>
-      <c r="AA3" s="35"/>
-      <c r="AB3" s="35"/>
-      <c r="AC3" s="36"/>
-      <c r="AD3" s="45" t="s">
-        <v>36</v>
-      </c>
-      <c r="AE3" s="46"/>
-      <c r="AF3" s="47"/>
-      <c r="AG3" s="64">
+      <c r="AE3" s="50"/>
+      <c r="AF3" s="51"/>
+      <c r="AG3" s="68">
         <v>45401</v>
       </c>
-      <c r="AH3" s="65"/>
-      <c r="AI3" s="65"/>
+      <c r="AH3" s="69"/>
+      <c r="AI3" s="69"/>
     </row>
-    <row r="4" spans="1:35" ht="12.95" customHeight="1">
-      <c r="A4" s="48"/>
-      <c r="B4" s="49"/>
-      <c r="C4" s="49"/>
-      <c r="D4" s="49"/>
-      <c r="E4" s="49"/>
-      <c r="F4" s="50"/>
-      <c r="G4" s="48"/>
-      <c r="H4" s="49"/>
-      <c r="I4" s="49"/>
-      <c r="J4" s="49"/>
-      <c r="K4" s="49"/>
-      <c r="L4" s="50"/>
-      <c r="M4" s="54"/>
-      <c r="N4" s="54"/>
-      <c r="O4" s="54"/>
-      <c r="P4" s="54"/>
-      <c r="Q4" s="54"/>
-      <c r="R4" s="54"/>
-      <c r="S4" s="54"/>
-      <c r="T4" s="54"/>
-      <c r="U4" s="54"/>
-      <c r="V4" s="54"/>
-      <c r="W4" s="54"/>
-      <c r="X4" s="37"/>
-      <c r="Y4" s="38"/>
-      <c r="Z4" s="38"/>
-      <c r="AA4" s="38"/>
-      <c r="AB4" s="38"/>
-      <c r="AC4" s="39"/>
-      <c r="AD4" s="48"/>
-      <c r="AE4" s="49"/>
-      <c r="AF4" s="50"/>
-      <c r="AG4" s="65" t="s">
+    <row r="4" spans="1:35" ht="13" customHeight="1">
+      <c r="A4" s="52"/>
+      <c r="B4" s="53"/>
+      <c r="C4" s="53"/>
+      <c r="D4" s="53"/>
+      <c r="E4" s="53"/>
+      <c r="F4" s="54"/>
+      <c r="G4" s="52"/>
+      <c r="H4" s="53"/>
+      <c r="I4" s="53"/>
+      <c r="J4" s="53"/>
+      <c r="K4" s="53"/>
+      <c r="L4" s="54"/>
+      <c r="M4" s="58"/>
+      <c r="N4" s="58"/>
+      <c r="O4" s="58"/>
+      <c r="P4" s="58"/>
+      <c r="Q4" s="58"/>
+      <c r="R4" s="58"/>
+      <c r="S4" s="58"/>
+      <c r="T4" s="58"/>
+      <c r="U4" s="58"/>
+      <c r="V4" s="58"/>
+      <c r="W4" s="58"/>
+      <c r="X4" s="41"/>
+      <c r="Y4" s="42"/>
+      <c r="Z4" s="42"/>
+      <c r="AA4" s="42"/>
+      <c r="AB4" s="42"/>
+      <c r="AC4" s="43"/>
+      <c r="AD4" s="52"/>
+      <c r="AE4" s="53"/>
+      <c r="AF4" s="54"/>
+      <c r="AG4" s="69" t="s">
         <v>29</v>
       </c>
-      <c r="AH4" s="65"/>
-      <c r="AI4" s="65"/>
+      <c r="AH4" s="69"/>
+      <c r="AI4" s="69"/>
     </row>
     <row r="5" spans="1:35" ht="12">
-      <c r="A5" s="51"/>
-      <c r="B5" s="52"/>
-      <c r="C5" s="52"/>
-      <c r="D5" s="52"/>
-      <c r="E5" s="52"/>
-      <c r="F5" s="53"/>
-      <c r="G5" s="51"/>
-      <c r="H5" s="52"/>
-      <c r="I5" s="52"/>
-      <c r="J5" s="52"/>
-      <c r="K5" s="52"/>
-      <c r="L5" s="53"/>
-      <c r="M5" s="54"/>
-      <c r="N5" s="54"/>
-      <c r="O5" s="54"/>
-      <c r="P5" s="54"/>
-      <c r="Q5" s="54"/>
-      <c r="R5" s="54"/>
-      <c r="S5" s="54"/>
-      <c r="T5" s="54"/>
-      <c r="U5" s="54"/>
-      <c r="V5" s="54"/>
-      <c r="W5" s="54"/>
-      <c r="X5" s="40"/>
-      <c r="Y5" s="41"/>
-      <c r="Z5" s="41"/>
-      <c r="AA5" s="41"/>
-      <c r="AB5" s="41"/>
-      <c r="AC5" s="42"/>
-      <c r="AD5" s="51"/>
-      <c r="AE5" s="52"/>
-      <c r="AF5" s="53"/>
-      <c r="AG5" s="65"/>
-      <c r="AH5" s="65"/>
-      <c r="AI5" s="65"/>
+      <c r="A5" s="55"/>
+      <c r="B5" s="56"/>
+      <c r="C5" s="56"/>
+      <c r="D5" s="56"/>
+      <c r="E5" s="56"/>
+      <c r="F5" s="57"/>
+      <c r="G5" s="55"/>
+      <c r="H5" s="56"/>
+      <c r="I5" s="56"/>
+      <c r="J5" s="56"/>
+      <c r="K5" s="56"/>
+      <c r="L5" s="57"/>
+      <c r="M5" s="58"/>
+      <c r="N5" s="58"/>
+      <c r="O5" s="58"/>
+      <c r="P5" s="58"/>
+      <c r="Q5" s="58"/>
+      <c r="R5" s="58"/>
+      <c r="S5" s="58"/>
+      <c r="T5" s="58"/>
+      <c r="U5" s="58"/>
+      <c r="V5" s="58"/>
+      <c r="W5" s="58"/>
+      <c r="X5" s="44"/>
+      <c r="Y5" s="45"/>
+      <c r="Z5" s="45"/>
+      <c r="AA5" s="45"/>
+      <c r="AB5" s="45"/>
+      <c r="AC5" s="46"/>
+      <c r="AD5" s="55"/>
+      <c r="AE5" s="56"/>
+      <c r="AF5" s="57"/>
+      <c r="AG5" s="68">
+        <v>45485</v>
+      </c>
+      <c r="AH5" s="69"/>
+      <c r="AI5" s="69"/>
     </row>
     <row r="6" spans="1:35" ht="12.75" customHeight="1">
       <c r="A6" s="2"/>
@@ -18373,7 +19426,7 @@
       <c r="AE16" s="6"/>
       <c r="AI16" s="7"/>
     </row>
-    <row r="17" spans="1:40" ht="12.75" customHeight="1">
+    <row r="17" spans="1:38" ht="12.75" customHeight="1">
       <c r="A17" s="5"/>
       <c r="B17" s="6"/>
       <c r="C17" s="6"/>
@@ -18402,7 +19455,7 @@
       <c r="AH17" s="6"/>
       <c r="AI17" s="7"/>
     </row>
-    <row r="18" spans="1:40" ht="12.75" customHeight="1">
+    <row r="18" spans="1:38" ht="12.75" customHeight="1">
       <c r="A18" s="5"/>
       <c r="B18" s="6"/>
       <c r="C18" s="6"/>
@@ -18437,11 +19490,8 @@
       <c r="AG18" s="6"/>
       <c r="AH18" s="6"/>
       <c r="AI18" s="7"/>
-      <c r="AN18" s="1" t="s">
-        <v>37</v>
-      </c>
     </row>
-    <row r="19" spans="1:40" ht="12.75" customHeight="1">
+    <row r="19" spans="1:38" ht="12.75" customHeight="1">
       <c r="A19" s="5"/>
       <c r="B19" s="6"/>
       <c r="C19" s="6"/>
@@ -18476,11 +19526,8 @@
       <c r="AG19" s="6"/>
       <c r="AH19" s="6"/>
       <c r="AI19" s="7"/>
-      <c r="AN19" s="1" t="s">
-        <v>38</v>
-      </c>
     </row>
-    <row r="20" spans="1:40" ht="12.75" customHeight="1">
+    <row r="20" spans="1:38" ht="12.75" customHeight="1">
       <c r="A20" s="5"/>
       <c r="B20" s="6"/>
       <c r="C20" s="6"/>
@@ -18513,11 +19560,8 @@
       <c r="AG20" s="6"/>
       <c r="AH20" s="6"/>
       <c r="AI20" s="7"/>
-      <c r="AN20" s="1" t="s">
-        <v>39</v>
-      </c>
     </row>
-    <row r="21" spans="1:40" ht="12.75" customHeight="1">
+    <row r="21" spans="1:38" ht="12.75" customHeight="1">
       <c r="A21" s="5"/>
       <c r="B21" s="6"/>
       <c r="C21" s="6"/>
@@ -18551,11 +19595,10 @@
       <c r="AI21" s="7"/>
       <c r="AL21" s="29"/>
     </row>
-    <row r="22" spans="1:40" ht="12.75" customHeight="1">
+    <row r="22" spans="1:38" ht="12.75" customHeight="1">
       <c r="A22" s="5"/>
       <c r="B22" s="6"/>
       <c r="C22" s="6"/>
-      <c r="D22" s="6"/>
       <c r="E22" s="6"/>
       <c r="F22" s="6"/>
       <c r="G22" s="6"/>
@@ -18584,7 +19627,7 @@
       <c r="AE22" s="6"/>
       <c r="AI22" s="7"/>
     </row>
-    <row r="23" spans="1:40" ht="12.75" customHeight="1">
+    <row r="23" spans="1:38" ht="12.75" customHeight="1">
       <c r="A23" s="5"/>
       <c r="B23" s="6"/>
       <c r="C23" s="6"/>
@@ -18618,11 +19661,8 @@
       <c r="AG23" s="6"/>
       <c r="AH23" s="6"/>
       <c r="AI23" s="7"/>
-      <c r="AN23" s="1" t="s">
-        <v>39</v>
-      </c>
     </row>
-    <row r="24" spans="1:40" ht="12.75" customHeight="1">
+    <row r="24" spans="1:38" ht="12.75" customHeight="1">
       <c r="A24" s="5"/>
       <c r="B24" s="6"/>
       <c r="C24" s="6"/>
@@ -18655,16 +19695,12 @@
       <c r="AG24" s="6"/>
       <c r="AH24" s="6"/>
       <c r="AI24" s="7"/>
-      <c r="AN24" s="1" t="s">
-        <v>40</v>
-      </c>
     </row>
-    <row r="25" spans="1:40" ht="12.75" customHeight="1">
+    <row r="25" spans="1:38" ht="12.75" customHeight="1">
       <c r="A25" s="5"/>
       <c r="B25" s="6"/>
       <c r="C25" s="6"/>
       <c r="D25" s="6"/>
-      <c r="E25" s="6"/>
       <c r="F25" s="6"/>
       <c r="G25" s="6"/>
       <c r="H25" s="6"/>
@@ -18688,7 +19724,7 @@
       <c r="AH25" s="6"/>
       <c r="AI25" s="7"/>
     </row>
-    <row r="26" spans="1:40" ht="12.75" customHeight="1">
+    <row r="26" spans="1:38" ht="12.75" customHeight="1">
       <c r="A26" s="5"/>
       <c r="B26" s="6"/>
       <c r="C26" s="6"/>
@@ -18718,7 +19754,7 @@
       <c r="AH26" s="6"/>
       <c r="AI26" s="7"/>
     </row>
-    <row r="27" spans="1:40" ht="12.75" customHeight="1">
+    <row r="27" spans="1:38" ht="12.75" customHeight="1">
       <c r="A27" s="5"/>
       <c r="B27" s="6"/>
       <c r="C27" s="6"/>
@@ -18747,7 +19783,7 @@
       <c r="AH27" s="6"/>
       <c r="AI27" s="7"/>
     </row>
-    <row r="28" spans="1:40" ht="12.75" customHeight="1">
+    <row r="28" spans="1:38" ht="12.75" customHeight="1">
       <c r="A28" s="5"/>
       <c r="B28" s="6"/>
       <c r="C28" s="6"/>
@@ -18776,7 +19812,7 @@
       <c r="AH28" s="6"/>
       <c r="AI28" s="7"/>
     </row>
-    <row r="29" spans="1:40" ht="12.75" customHeight="1">
+    <row r="29" spans="1:38" ht="12.75" customHeight="1">
       <c r="A29" s="5"/>
       <c r="B29" s="6"/>
       <c r="C29" s="6"/>
@@ -18805,7 +19841,7 @@
       <c r="AH29" s="6"/>
       <c r="AI29" s="7"/>
     </row>
-    <row r="30" spans="1:40" ht="12.75" customHeight="1">
+    <row r="30" spans="1:38" ht="12.75" customHeight="1">
       <c r="A30" s="5"/>
       <c r="B30" s="6"/>
       <c r="C30" s="6"/>
@@ -18833,7 +19869,7 @@
       <c r="AH30" s="6"/>
       <c r="AI30" s="7"/>
     </row>
-    <row r="31" spans="1:40" ht="12.75" customHeight="1">
+    <row r="31" spans="1:38" ht="12.75" customHeight="1">
       <c r="A31" s="5"/>
       <c r="B31" s="6"/>
       <c r="C31" s="6"/>
@@ -18862,7 +19898,7 @@
       <c r="AH31" s="6"/>
       <c r="AI31" s="7"/>
     </row>
-    <row r="32" spans="1:40" ht="12.75" customHeight="1">
+    <row r="32" spans="1:38" ht="12.75" customHeight="1">
       <c r="A32" s="5"/>
       <c r="B32" s="6"/>
       <c r="C32" s="6"/>
@@ -19206,7 +20242,7 @@
       <c r="P41" s="6"/>
       <c r="Q41" s="6"/>
       <c r="R41" s="6" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="S41" s="6"/>
       <c r="T41" s="6"/>
@@ -19264,7 +20300,7 @@
       <c r="AI42" s="7"/>
     </row>
     <row r="43" spans="1:35" ht="12.75" customHeight="1">
-      <c r="A43" s="5"/>
+      <c r="A43" s="6"/>
       <c r="B43" s="6"/>
       <c r="C43" s="6"/>
       <c r="D43" s="6"/>
@@ -19301,41 +20337,107 @@
       <c r="AI43" s="7"/>
     </row>
     <row r="44" spans="1:35" ht="12.75" customHeight="1">
-      <c r="A44" s="8"/>
-      <c r="B44" s="9"/>
-      <c r="C44" s="9"/>
-      <c r="D44" s="9"/>
-      <c r="E44" s="9"/>
-      <c r="F44" s="9"/>
-      <c r="G44" s="9"/>
-      <c r="H44" s="9"/>
-      <c r="I44" s="9"/>
-      <c r="J44" s="9"/>
-      <c r="K44" s="9"/>
-      <c r="L44" s="9"/>
-      <c r="M44" s="9"/>
-      <c r="N44" s="9"/>
-      <c r="O44" s="9"/>
-      <c r="P44" s="9"/>
-      <c r="Q44" s="9"/>
-      <c r="R44" s="9"/>
-      <c r="S44" s="9"/>
-      <c r="T44" s="9"/>
-      <c r="U44" s="9"/>
-      <c r="V44" s="9"/>
-      <c r="W44" s="9"/>
-      <c r="X44" s="9"/>
-      <c r="Y44" s="9"/>
-      <c r="Z44" s="9"/>
-      <c r="AA44" s="9"/>
-      <c r="AB44" s="9"/>
-      <c r="AC44" s="9"/>
-      <c r="AD44" s="9"/>
-      <c r="AE44" s="9"/>
-      <c r="AF44" s="9"/>
-      <c r="AG44" s="9"/>
-      <c r="AH44" s="9"/>
-      <c r="AI44" s="10"/>
+      <c r="A44" s="6"/>
+      <c r="B44" s="6"/>
+      <c r="C44" s="6"/>
+      <c r="D44" s="6"/>
+      <c r="E44" s="6"/>
+      <c r="F44" s="6"/>
+      <c r="G44" s="6"/>
+      <c r="H44" s="6"/>
+      <c r="J44" s="6"/>
+      <c r="K44" s="6"/>
+      <c r="L44" s="6"/>
+      <c r="M44" s="6"/>
+      <c r="N44" s="6"/>
+      <c r="O44" s="6"/>
+      <c r="P44" s="6"/>
+      <c r="Q44" s="6"/>
+      <c r="R44" s="6"/>
+      <c r="S44" s="6"/>
+      <c r="T44" s="6"/>
+      <c r="U44" s="6"/>
+      <c r="V44" s="6"/>
+      <c r="W44" s="6"/>
+      <c r="X44" s="6"/>
+      <c r="Y44" s="6"/>
+      <c r="Z44" s="6"/>
+      <c r="AA44" s="6"/>
+      <c r="AB44" s="6"/>
+      <c r="AC44" s="6"/>
+      <c r="AD44" s="6"/>
+      <c r="AE44" s="6"/>
+      <c r="AF44" s="6"/>
+      <c r="AG44" s="6"/>
+      <c r="AH44" s="6"/>
+      <c r="AI44" s="7"/>
+    </row>
+    <row r="45" spans="1:35" ht="12.75" customHeight="1">
+      <c r="AI45" s="31"/>
+    </row>
+    <row r="46" spans="1:35" ht="12.75" customHeight="1">
+      <c r="AI46" s="31"/>
+    </row>
+    <row r="47" spans="1:35" ht="12.75" customHeight="1">
+      <c r="AI47" s="31"/>
+    </row>
+    <row r="48" spans="1:35" ht="12.75" customHeight="1">
+      <c r="AI48" s="31"/>
+    </row>
+    <row r="49" spans="1:35" ht="12.75" customHeight="1">
+      <c r="AI49" s="31"/>
+    </row>
+    <row r="50" spans="1:35" ht="12.75" customHeight="1">
+      <c r="AI50" s="31"/>
+    </row>
+    <row r="51" spans="1:35" ht="12.75" customHeight="1">
+      <c r="AI51" s="31"/>
+    </row>
+    <row r="52" spans="1:35" ht="12.75" customHeight="1">
+      <c r="AI52" s="31"/>
+    </row>
+    <row r="53" spans="1:35" ht="12.75" customHeight="1">
+      <c r="AI53" s="31"/>
+    </row>
+    <row r="54" spans="1:35" ht="12.75" customHeight="1">
+      <c r="AI54" s="31"/>
+    </row>
+    <row r="55" spans="1:35" ht="12.75" customHeight="1">
+      <c r="A55" s="32"/>
+      <c r="B55" s="32"/>
+      <c r="C55" s="32"/>
+      <c r="D55" s="32"/>
+      <c r="E55" s="33"/>
+      <c r="F55" s="33"/>
+      <c r="G55" s="32"/>
+      <c r="H55" s="32"/>
+      <c r="I55" s="32"/>
+      <c r="J55" s="32"/>
+      <c r="K55" s="32"/>
+      <c r="L55" s="32"/>
+      <c r="M55" s="32"/>
+      <c r="N55" s="32"/>
+      <c r="O55" s="32"/>
+      <c r="P55" s="32"/>
+      <c r="Q55" s="32"/>
+      <c r="R55" s="32"/>
+      <c r="S55" s="32"/>
+      <c r="T55" s="32"/>
+      <c r="U55" s="32"/>
+      <c r="V55" s="32"/>
+      <c r="W55" s="32"/>
+      <c r="X55" s="32"/>
+      <c r="Y55" s="32"/>
+      <c r="Z55" s="32"/>
+      <c r="AA55" s="32"/>
+      <c r="AB55" s="32"/>
+      <c r="AC55" s="32"/>
+      <c r="AD55" s="32"/>
+      <c r="AE55" s="32"/>
+      <c r="AF55" s="32"/>
+      <c r="AG55" s="32"/>
+      <c r="AH55" s="32"/>
+      <c r="AI55" s="34"/>
     </row>
   </sheetData>
   <mergeCells count="15">
@@ -19367,8 +20469,8 @@
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
-    <TaxCatchAll xmlns="a07bcbfc-40da-4c2c-a402-50c677bd332c" xsi:nil="true"/>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="25b4e0c7-408b-4c10-8b8c-dc9d014c5782">
+    <TaxCatchAll xmlns="05501951-4c72-411f-bd62-2ea8bacaaa22" xsi:nil="true"/>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="24288dd6-a10b-4bbd-9709-969a9ca5030f">
       <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
     </lcf76f155ced4ddcb4097134ff3c332f>
   </documentManagement>
@@ -19385,10 +20487,10 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="ドキュメント" ma:contentTypeID="0x0101005639E3EE03989F47A6D270CC22BA09A2" ma:contentTypeVersion="11" ma:contentTypeDescription="新しいドキュメントを作成します。" ma:contentTypeScope="" ma:versionID="3cd2a082748b7d8b40e2c9a666abe5f6">
-  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="25b4e0c7-408b-4c10-8b8c-dc9d014c5782" xmlns:ns3="a07bcbfc-40da-4c2c-a402-50c677bd332c" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="e8f3dabbe4038de0948d21d5894dfdc1" ns2:_="" ns3:_="">
-    <xsd:import namespace="25b4e0c7-408b-4c10-8b8c-dc9d014c5782"/>
-    <xsd:import namespace="a07bcbfc-40da-4c2c-a402-50c677bd332c"/>
+<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="ドキュメント" ma:contentTypeID="0x01010042DFD04490200B47A76C1CE793EACE7F" ma:contentTypeVersion="15" ma:contentTypeDescription="新しいドキュメントを作成します。" ma:contentTypeScope="" ma:versionID="2017304d850e0d6876ad0d2b7858762e">
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="24288dd6-a10b-4bbd-9709-969a9ca5030f" xmlns:ns3="05501951-4c72-411f-bd62-2ea8bacaaa22" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="f1785773b0f630b9cbf9c0e5ebabba45" ns2:_="" ns3:_="">
+    <xsd:import namespace="24288dd6-a10b-4bbd-9709-969a9ca5030f"/>
+    <xsd:import namespace="05501951-4c72-411f-bd62-2ea8bacaaa22"/>
     <xsd:element name="properties">
       <xsd:complexType>
         <xsd:sequence>
@@ -19399,12 +20501,14 @@
                 <xsd:element ref="ns2:MediaServiceFastMetadata" minOccurs="0"/>
                 <xsd:element ref="ns2:MediaServiceSearchProperties" minOccurs="0"/>
                 <xsd:element ref="ns2:MediaServiceObjectDetectorVersions" minOccurs="0"/>
+                <xsd:element ref="ns2:lcf76f155ced4ddcb4097134ff3c332f" minOccurs="0"/>
+                <xsd:element ref="ns3:TaxCatchAll" minOccurs="0"/>
                 <xsd:element ref="ns2:MediaServiceDateTaken" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceOCR" minOccurs="0"/>
                 <xsd:element ref="ns2:MediaServiceGenerationTime" minOccurs="0"/>
                 <xsd:element ref="ns2:MediaServiceEventHashCode" minOccurs="0"/>
-                <xsd:element ref="ns2:lcf76f155ced4ddcb4097134ff3c332f" minOccurs="0"/>
-                <xsd:element ref="ns3:TaxCatchAll" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaServiceOCR" minOccurs="0"/>
+                <xsd:element ref="ns3:SharedWithUsers" minOccurs="0"/>
+                <xsd:element ref="ns3:SharedWithDetails" minOccurs="0"/>
               </xsd:all>
             </xsd:complexType>
           </xsd:element>
@@ -19412,7 +20516,7 @@
       </xsd:complexType>
     </xsd:element>
   </xsd:schema>
-  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="25b4e0c7-408b-4c10-8b8c-dc9d014c5782" elementFormDefault="qualified">
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="24288dd6-a10b-4bbd-9709-969a9ca5030f" elementFormDefault="qualified">
     <xsd:import namespace="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
     <xsd:import namespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
     <xsd:element name="MediaServiceMetadata" ma:index="8" nillable="true" ma:displayName="MediaServiceMetadata" ma:hidden="true" ma:internalName="MediaServiceMetadata" ma:readOnly="true">
@@ -19435,40 +20539,40 @@
         <xsd:restriction base="dms:Text"/>
       </xsd:simpleType>
     </xsd:element>
-    <xsd:element name="MediaServiceDateTaken" ma:index="12" nillable="true" ma:displayName="MediaServiceDateTaken" ma:hidden="true" ma:indexed="true" ma:internalName="MediaServiceDateTaken" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Text"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaServiceGenerationTime" ma:index="13" nillable="true" ma:displayName="MediaServiceGenerationTime" ma:hidden="true" ma:internalName="MediaServiceGenerationTime" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Text"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaServiceEventHashCode" ma:index="14" nillable="true" ma:displayName="MediaServiceEventHashCode" ma:hidden="true" ma:internalName="MediaServiceEventHashCode" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Text"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="lcf76f155ced4ddcb4097134ff3c332f" ma:index="16" nillable="true" ma:taxonomy="true" ma:internalName="lcf76f155ced4ddcb4097134ff3c332f" ma:taxonomyFieldName="MediaServiceImageTags" ma:displayName="画像タグ" ma:readOnly="false" ma:fieldId="{5cf76f15-5ced-4ddc-b409-7134ff3c332f}" ma:taxonomyMulti="true" ma:sspId="7a3d4e50-da24-4b51-9333-67165e7dee8a" ma:termSetId="09814cd3-568e-fe90-9814-8d621ff8fb84" ma:anchorId="fba54fb3-c3e1-fe81-a776-ca4b69148c4d" ma:open="true" ma:isKeyword="false">
+    <xsd:element name="lcf76f155ced4ddcb4097134ff3c332f" ma:index="13" nillable="true" ma:taxonomy="true" ma:internalName="lcf76f155ced4ddcb4097134ff3c332f" ma:taxonomyFieldName="MediaServiceImageTags" ma:displayName="画像タグ" ma:readOnly="false" ma:fieldId="{5cf76f15-5ced-4ddc-b409-7134ff3c332f}" ma:taxonomyMulti="true" ma:sspId="7a3d4e50-da24-4b51-9333-67165e7dee8a" ma:termSetId="09814cd3-568e-fe90-9814-8d621ff8fb84" ma:anchorId="fba54fb3-c3e1-fe81-a776-ca4b69148c4d" ma:open="true" ma:isKeyword="false">
       <xsd:complexType>
         <xsd:sequence>
           <xsd:element ref="pc:Terms" minOccurs="0" maxOccurs="1"/>
         </xsd:sequence>
       </xsd:complexType>
     </xsd:element>
-    <xsd:element name="MediaServiceOCR" ma:index="18" nillable="true" ma:displayName="Extracted Text" ma:internalName="MediaServiceOCR" ma:readOnly="true">
+    <xsd:element name="MediaServiceDateTaken" ma:index="15" nillable="true" ma:displayName="MediaServiceDateTaken" ma:hidden="true" ma:indexed="true" ma:internalName="MediaServiceDateTaken" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceOCR" ma:index="16" nillable="true" ma:displayName="Extracted Text" ma:internalName="MediaServiceOCR" ma:readOnly="true">
       <xsd:simpleType>
         <xsd:restriction base="dms:Note">
           <xsd:maxLength value="255"/>
         </xsd:restriction>
       </xsd:simpleType>
     </xsd:element>
+    <xsd:element name="MediaServiceGenerationTime" ma:index="17" nillable="true" ma:displayName="MediaServiceGenerationTime" ma:hidden="true" ma:internalName="MediaServiceGenerationTime" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceEventHashCode" ma:index="18" nillable="true" ma:displayName="MediaServiceEventHashCode" ma:hidden="true" ma:internalName="MediaServiceEventHashCode" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
   </xsd:schema>
-  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="a07bcbfc-40da-4c2c-a402-50c677bd332c" elementFormDefault="qualified">
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="05501951-4c72-411f-bd62-2ea8bacaaa22" elementFormDefault="qualified">
     <xsd:import namespace="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
     <xsd:import namespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <xsd:element name="TaxCatchAll" ma:index="17" nillable="true" ma:displayName="Taxonomy Catch All Column" ma:hidden="true" ma:list="{43ffd9aa-6490-4cb3-a75a-be94bee5c69f}" ma:internalName="TaxCatchAll" ma:showField="CatchAllData" ma:web="a07bcbfc-40da-4c2c-a402-50c677bd332c">
+    <xsd:element name="TaxCatchAll" ma:index="14" nillable="true" ma:displayName="Taxonomy Catch All Column" ma:hidden="true" ma:list="{7236fc4a-eaee-4cbf-acaf-f2250c171658}" ma:internalName="TaxCatchAll" ma:showField="CatchAllData" ma:web="05501951-4c72-411f-bd62-2ea8bacaaa22">
       <xsd:complexType>
         <xsd:complexContent>
           <xsd:extension base="dms:MultiChoiceLookup">
@@ -19478,6 +20582,32 @@
           </xsd:extension>
         </xsd:complexContent>
       </xsd:complexType>
+    </xsd:element>
+    <xsd:element name="SharedWithUsers" ma:index="19" nillable="true" ma:displayName="共有相手" ma:internalName="SharedWithUsers" ma:readOnly="true">
+      <xsd:complexType>
+        <xsd:complexContent>
+          <xsd:extension base="dms:UserMulti">
+            <xsd:sequence>
+              <xsd:element name="UserInfo" minOccurs="0" maxOccurs="unbounded">
+                <xsd:complexType>
+                  <xsd:sequence>
+                    <xsd:element name="DisplayName" type="xsd:string" minOccurs="0"/>
+                    <xsd:element name="AccountId" type="dms:UserId" minOccurs="0" nillable="true"/>
+                    <xsd:element name="AccountType" type="xsd:string" minOccurs="0"/>
+                  </xsd:sequence>
+                </xsd:complexType>
+              </xsd:element>
+            </xsd:sequence>
+          </xsd:extension>
+        </xsd:complexContent>
+      </xsd:complexType>
+    </xsd:element>
+    <xsd:element name="SharedWithDetails" ma:index="20" nillable="true" ma:displayName="共有相手の詳細情報" ma:internalName="SharedWithDetails" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note">
+          <xsd:maxLength value="255"/>
+        </xsd:restriction>
+      </xsd:simpleType>
     </xsd:element>
   </xsd:schema>
   <xsd:schema xmlns="http://schemas.openxmlformats.org/package/2006/metadata/core-properties" xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:dc="http://purl.org/dc/elements/1.1/" xmlns:dcterms="http://purl.org/dc/terms/" xmlns:odoc="http://schemas.microsoft.com/internal/obd" targetNamespace="http://schemas.openxmlformats.org/package/2006/metadata/core-properties" elementFormDefault="qualified" attributeFormDefault="unqualified" blockDefault="#all">
@@ -19580,13 +20710,30 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{88A004A7-EC12-494C-91ED-1562072E5758}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{88A004A7-EC12-494C-91ED-1562072E5758}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="24288dd6-a10b-4bbd-9709-969a9ca5030f"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="05501951-4c72-411f-bd62-2ea8bacaaa22"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8F618CEE-FC18-4447-826F-47D5CC3A3AAE}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8F618CEE-FC18-4447-826F-47D5CC3A3AAE}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A5C50B88-EFAE-45D5-BC2B-4F2153EE8E86}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{52146ABF-6667-49DB-8A2E-7F2C45DAD237}"/>
 </file>